--- a/Attune_Estate_2022_Bookings.xlsx
+++ b/Attune_Estate_2022_Bookings.xlsx
@@ -70,7 +70,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment shrinkToFit="1"/>
@@ -86,6 +86,9 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +467,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -553,7 +557,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n"/>
+      <c r="G2" s="6" t="n"/>
       <c r="H2" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -565,7 +569,7 @@
         </is>
       </c>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="3" t="n"/>
     </row>
@@ -592,7 +596,7 @@
           <t>Res. - Renter</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="6" t="n">
         <v>5700</v>
       </c>
       <c r="H3" s="5" t="inlineStr">
@@ -606,7 +610,7 @@
         </is>
       </c>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="3" t="n"/>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="3" t="n"/>
     </row>
@@ -633,7 +637,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n"/>
+      <c r="G4" s="6" t="n"/>
       <c r="H4" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -645,7 +649,7 @@
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="3" t="n"/>
+      <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="3" t="n"/>
     </row>
@@ -672,7 +676,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n"/>
+      <c r="G5" s="6" t="n"/>
       <c r="H5" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -684,7 +688,7 @@
         </is>
       </c>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="3" t="n"/>
+      <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="3" t="n"/>
     </row>
@@ -711,7 +715,7 @@
           <t>Res. - Renter</t>
         </is>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="6" t="n">
         <v>5700</v>
       </c>
       <c r="H6" s="5" t="inlineStr">
@@ -725,7 +729,7 @@
         </is>
       </c>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="3" t="n"/>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="3" t="n"/>
     </row>
@@ -752,7 +756,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G7" s="3" t="n"/>
+      <c r="G7" s="6" t="n"/>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -764,7 +768,7 @@
         </is>
       </c>
       <c r="J7" s="5" t="n"/>
-      <c r="K7" s="3" t="n"/>
+      <c r="K7" s="4" t="n"/>
       <c r="L7" s="4" t="n"/>
       <c r="M7" s="3" t="n"/>
     </row>
@@ -772,7 +776,7 @@
       <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MLH-00010</t>
+          <t>HLD-22490</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
@@ -789,7 +793,7 @@
           <t>Hold-Deep Clean</t>
         </is>
       </c>
-      <c r="G8" s="3" t="n"/>
+      <c r="G8" s="6" t="n"/>
       <c r="H8" s="5" t="inlineStr">
         <is>
           <t>MS</t>
@@ -801,7 +805,7 @@
         </is>
       </c>
       <c r="J8" s="5" t="n"/>
-      <c r="K8" s="3" t="n"/>
+      <c r="K8" s="4" t="n"/>
       <c r="L8" s="4" t="n"/>
       <c r="M8" s="3" t="n"/>
     </row>
@@ -828,7 +832,7 @@
           <t>Hold - Owner</t>
         </is>
       </c>
-      <c r="G9" s="3" t="n"/>
+      <c r="G9" s="6" t="n"/>
       <c r="H9" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -840,7 +844,7 @@
         </is>
       </c>
       <c r="J9" s="5" t="n"/>
-      <c r="K9" s="3" t="n"/>
+      <c r="K9" s="4" t="n"/>
       <c r="L9" s="4" t="n"/>
       <c r="M9" s="3" t="n"/>
     </row>
@@ -865,7 +869,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G10" s="3" t="n"/>
+      <c r="G10" s="6" t="n"/>
       <c r="H10" s="5" t="inlineStr">
         <is>
           <t>Marthas Cleaning</t>
@@ -881,7 +885,7 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="K10" s="3" t="n"/>
+      <c r="K10" s="4" t="n"/>
       <c r="L10" s="4" t="n"/>
       <c r="M10" s="3" t="n"/>
     </row>
@@ -906,7 +910,7 @@
           <t>Res. - Renter</t>
         </is>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="6" t="n">
         <v>5881</v>
       </c>
       <c r="H11" s="5" t="inlineStr">
@@ -924,7 +928,7 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="K11" s="3" t="n"/>
+      <c r="K11" s="4" t="n"/>
       <c r="L11" s="4" t="n"/>
       <c r="M11" s="3" t="n"/>
     </row>
@@ -949,7 +953,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G12" s="3" t="n"/>
+      <c r="G12" s="6" t="n"/>
       <c r="H12" s="5" t="inlineStr">
         <is>
           <t>MS</t>
@@ -965,7 +969,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="K12" s="3" t="n"/>
+      <c r="K12" s="4" t="n"/>
       <c r="L12" s="4" t="n"/>
       <c r="M12" s="3" t="n"/>
     </row>
@@ -992,7 +996,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G13" s="3" t="n"/>
+      <c r="G13" s="6" t="n"/>
       <c r="H13" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1004,7 +1008,7 @@
         </is>
       </c>
       <c r="J13" s="5" t="n"/>
-      <c r="K13" s="3" t="n"/>
+      <c r="K13" s="4" t="n"/>
       <c r="L13" s="4" t="n"/>
       <c r="M13" s="3" t="n"/>
     </row>
@@ -1031,7 +1035,7 @@
           <t>Res. - Renter</t>
         </is>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="6" t="n">
         <v>5700</v>
       </c>
       <c r="H14" s="5" t="inlineStr">
@@ -1045,7 +1049,7 @@
         </is>
       </c>
       <c r="J14" s="5" t="n"/>
-      <c r="K14" s="3" t="n"/>
+      <c r="K14" s="4" t="n"/>
       <c r="L14" s="4" t="n"/>
       <c r="M14" s="3" t="n"/>
     </row>
@@ -1053,7 +1057,7 @@
       <c r="A15" s="3" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>HLD-22511</t>
+          <t>CLN-00030</t>
         </is>
       </c>
       <c r="C15" s="4" t="n">
@@ -1072,7 +1076,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G15" s="3" t="n"/>
+      <c r="G15" s="6" t="n"/>
       <c r="H15" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1084,7 +1088,7 @@
         </is>
       </c>
       <c r="J15" s="5" t="n"/>
-      <c r="K15" s="3" t="n"/>
+      <c r="K15" s="4" t="n"/>
       <c r="L15" s="4" t="n"/>
       <c r="M15" s="3" t="n"/>
     </row>
@@ -1092,66 +1096,66 @@
       <c r="A16" s="3" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MLS-00040</t>
+          <t>CLN-00100</t>
         </is>
       </c>
       <c r="C16" s="4" t="n">
         <v>44629</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>44633</v>
+        <v>44629</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>Hold - Renter</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="n"/>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="n"/>
       <c r="H16" s="5" t="inlineStr">
         <is>
+          <t>MS-Add</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="J16" s="5" t="n"/>
-      <c r="K16" s="3" t="n"/>
-      <c r="L16" s="4" t="n">
-        <v>44593</v>
-      </c>
+      <c r="K16" s="4" t="n"/>
+      <c r="L16" s="4" t="n"/>
       <c r="M16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CLN-00060</t>
+          <t>MLS-00020</t>
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>44634</v>
+        <v>44630</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>Hold - Clean</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="n"/>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>5175</v>
+      </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>MS-Add</t>
+          <t>Airbnb</t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
@@ -1160,7 +1164,7 @@
         </is>
       </c>
       <c r="J17" s="5" t="n"/>
-      <c r="K17" s="3" t="n"/>
+      <c r="K17" s="4" t="n"/>
       <c r="L17" s="4" t="n"/>
       <c r="M17" s="3" t="n"/>
     </row>
@@ -1168,36 +1172,38 @@
       <c r="A18" s="3" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CLN-00070</t>
+          <t>CLN-00040</t>
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>44643</v>
+        <v>44634</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>44643</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>1</v>
+        <v>44634</v>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G18" s="3" t="n"/>
+      <c r="G18" s="6" t="n"/>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>MS-Add</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="I18" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="J18" s="5" t="n"/>
-      <c r="K18" s="3" t="n"/>
+      <c r="K18" s="4" t="n"/>
       <c r="L18" s="4" t="n"/>
       <c r="M18" s="3" t="n"/>
     </row>
@@ -1205,29 +1211,27 @@
       <c r="A19" s="3" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MLS-00050</t>
+          <t>CLN-00110</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>44647</v>
+        <v>44643</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>Res. - Renter</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>5684.28</v>
-      </c>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="n"/>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>Airbnb</t>
+          <t>MS-Add</t>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
@@ -1236,7 +1240,7 @@
         </is>
       </c>
       <c r="J19" s="5" t="n"/>
-      <c r="K19" s="3" t="n"/>
+      <c r="K19" s="4" t="n"/>
       <c r="L19" s="4" t="n"/>
       <c r="M19" s="3" t="n"/>
     </row>
@@ -1244,36 +1248,38 @@
       <c r="A20" s="3" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>OWN-00010</t>
+          <t>MLS-00030</t>
         </is>
       </c>
       <c r="C20" s="4" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <v>44647</v>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>44649</v>
-      </c>
       <c r="E20" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>Res.-Owner</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="n"/>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>5684.28</v>
+      </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="J20" s="5" t="n"/>
-      <c r="K20" s="3" t="n"/>
+      <c r="K20" s="4" t="n"/>
       <c r="L20" s="4" t="n"/>
       <c r="M20" s="3" t="n"/>
     </row>
@@ -1281,14 +1287,14 @@
       <c r="A21" s="3" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CLN-00080</t>
+          <t>CLN-00050</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>44650</v>
+        <v>44647</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>44650</v>
+        <v>44647</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>1</v>
@@ -1298,10 +1304,10 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G21" s="3" t="n"/>
+      <c r="G21" s="6" t="n"/>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>MS-Add</t>
+          <t>Marthas</t>
         </is>
       </c>
       <c r="I21" s="5" t="inlineStr">
@@ -1310,7 +1316,7 @@
         </is>
       </c>
       <c r="J21" s="5" t="n"/>
-      <c r="K21" s="3" t="n"/>
+      <c r="K21" s="4" t="n"/>
       <c r="L21" s="4" t="n"/>
       <c r="M21" s="3" t="n"/>
     </row>
@@ -1318,38 +1324,36 @@
       <c r="A22" s="3" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>HLD-22639</t>
+          <t>OWN-00010</t>
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>44659</v>
+        <v>44647</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>44659</v>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>44649</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>Hold - Clean</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="n"/>
+          <t>Res.-Owner</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="n"/>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="I22" s="5" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J22" s="5" t="n"/>
-      <c r="K22" s="3" t="n"/>
+      <c r="K22" s="4" t="n"/>
       <c r="L22" s="4" t="n"/>
       <c r="M22" s="3" t="n"/>
     </row>
@@ -1357,40 +1361,36 @@
       <c r="A23" s="3" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BKG-11586</t>
+          <t>CLN-00060</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>44660</v>
+        <v>44650</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>44664</v>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>44650</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>Res. - Renter</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>9875</v>
-      </c>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="n"/>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>Marthas</t>
         </is>
       </c>
       <c r="I23" s="5" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J23" s="5" t="n"/>
-      <c r="K23" s="3" t="n"/>
+      <c r="K23" s="4" t="n"/>
       <c r="L23" s="4" t="n"/>
       <c r="M23" s="3" t="n"/>
     </row>
@@ -1398,14 +1398,14 @@
       <c r="A24" s="3" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>HLD-22640</t>
+          <t>HLD-22639</t>
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>44665</v>
+        <v>44659</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>44665</v>
+        <v>44659</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G24" s="3" t="n"/>
+      <c r="G24" s="6" t="n"/>
       <c r="H24" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="J24" s="5" t="n"/>
-      <c r="K24" s="3" t="n"/>
+      <c r="K24" s="4" t="n"/>
       <c r="L24" s="4" t="n"/>
       <c r="M24" s="3" t="n"/>
     </row>
@@ -1437,26 +1437,28 @@
       <c r="A25" s="3" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>HLD-22429</t>
+          <t>BKG-11586</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>44669</v>
+        <v>44660</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>44669</v>
+        <v>44664</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>Hold - Clean</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="n"/>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>9875</v>
+      </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1468,7 +1470,7 @@
         </is>
       </c>
       <c r="J25" s="5" t="n"/>
-      <c r="K25" s="3" t="n"/>
+      <c r="K25" s="4" t="n"/>
       <c r="L25" s="4" t="n"/>
       <c r="M25" s="3" t="n"/>
     </row>
@@ -1476,28 +1478,26 @@
       <c r="A26" s="3" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>BKG-11520</t>
+          <t>HLD-22640</t>
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>44670</v>
+        <v>44665</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>44674</v>
+        <v>44665</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>Res. - Renter</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>9875</v>
-      </c>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G26" s="6" t="n"/>
       <c r="H26" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J26" s="5" t="n"/>
-      <c r="K26" s="3" t="n"/>
+      <c r="K26" s="4" t="n"/>
       <c r="L26" s="4" t="n"/>
       <c r="M26" s="3" t="n"/>
     </row>
@@ -1517,14 +1517,14 @@
       <c r="A27" s="3" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>HLD-22430</t>
+          <t>HLD-22429</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>44675</v>
+        <v>44669</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>44675</v>
+        <v>44669</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G27" s="3" t="n"/>
+      <c r="G27" s="6" t="n"/>
       <c r="H27" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="J27" s="5" t="n"/>
-      <c r="K27" s="3" t="n"/>
+      <c r="K27" s="4" t="n"/>
       <c r="L27" s="4" t="n"/>
       <c r="M27" s="3" t="n"/>
     </row>
@@ -1556,26 +1556,28 @@
       <c r="A28" s="3" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>HLD-22650</t>
+          <t>BKG-11520</t>
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>44677</v>
+        <v>44670</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>44677</v>
+        <v>44674</v>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>Hold - Clean</t>
-        </is>
-      </c>
-      <c r="G28" s="3" t="n"/>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>9875</v>
+      </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1587,7 +1589,7 @@
         </is>
       </c>
       <c r="J28" s="5" t="n"/>
-      <c r="K28" s="3" t="n"/>
+      <c r="K28" s="4" t="n"/>
       <c r="L28" s="4" t="n"/>
       <c r="M28" s="3" t="n"/>
     </row>
@@ -1595,28 +1597,26 @@
       <c r="A29" s="3" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>BKG-11588</t>
+          <t>HLD-22430</t>
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>44678</v>
+        <v>44675</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>44684</v>
+        <v>44675</v>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>Res. - Renter</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>13825</v>
-      </c>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G29" s="6" t="n"/>
       <c r="H29" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="J29" s="5" t="n"/>
-      <c r="K29" s="3" t="n"/>
+      <c r="K29" s="4" t="n"/>
       <c r="L29" s="4" t="n"/>
       <c r="M29" s="3" t="n"/>
     </row>
@@ -1636,14 +1636,14 @@
       <c r="A30" s="3" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>HLD-22651</t>
+          <t>HLD-22650</t>
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>44685</v>
+        <v>44677</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>44685</v>
+        <v>44677</v>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G30" s="3" t="n"/>
+      <c r="G30" s="6" t="n"/>
       <c r="H30" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="J30" s="5" t="n"/>
-      <c r="K30" s="3" t="n"/>
+      <c r="K30" s="4" t="n"/>
       <c r="L30" s="4" t="n"/>
       <c r="M30" s="3" t="n"/>
     </row>
@@ -1675,26 +1675,28 @@
       <c r="A31" s="3" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>HLD-22529</t>
+          <t>BKG-11588</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>44691</v>
+        <v>44678</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>44691</v>
+        <v>44684</v>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>Hold - Clean</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="n"/>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>13825</v>
+      </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1706,7 +1708,7 @@
         </is>
       </c>
       <c r="J31" s="5" t="n"/>
-      <c r="K31" s="3" t="n"/>
+      <c r="K31" s="4" t="n"/>
       <c r="L31" s="4" t="n"/>
       <c r="M31" s="3" t="n"/>
     </row>
@@ -1714,28 +1716,26 @@
       <c r="A32" s="3" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>BKG-11547</t>
+          <t>HLD-22651</t>
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>44692</v>
+        <v>44685</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>44695</v>
+        <v>44685</v>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>Res. - Renter</t>
-        </is>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>7900</v>
-      </c>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G32" s="6" t="n"/>
       <c r="H32" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="J32" s="5" t="n"/>
-      <c r="K32" s="3" t="n"/>
+      <c r="K32" s="4" t="n"/>
       <c r="L32" s="4" t="n"/>
       <c r="M32" s="3" t="n"/>
     </row>
@@ -1755,14 +1755,14 @@
       <c r="A33" s="3" t="n"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>HLD-22530</t>
+          <t>HLD-22529</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>44696</v>
+        <v>44691</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>44696</v>
+        <v>44691</v>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G33" s="3" t="n"/>
+      <c r="G33" s="6" t="n"/>
       <c r="H33" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="J33" s="5" t="n"/>
-      <c r="K33" s="3" t="n"/>
+      <c r="K33" s="4" t="n"/>
       <c r="L33" s="4" t="n"/>
       <c r="M33" s="3" t="n"/>
     </row>
@@ -1794,38 +1794,40 @@
       <c r="A34" s="3" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>MLS-00030</t>
+          <t>BKG-11547</t>
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>44700</v>
+        <v>44692</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>44705</v>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>5</v>
+        <v>44695</v>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
           <t>Res. - Renter</t>
         </is>
       </c>
-      <c r="G34" s="3" t="n">
-        <v>11678.8</v>
+      <c r="G34" s="6" t="n">
+        <v>7900</v>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>AirBnb</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="I34" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="J34" s="5" t="n"/>
-      <c r="K34" s="3" t="n"/>
+      <c r="K34" s="4" t="n"/>
       <c r="L34" s="4" t="n"/>
       <c r="M34" s="3" t="n"/>
     </row>
@@ -1833,36 +1835,38 @@
       <c r="A35" s="3" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>CLN-00030</t>
+          <t>CLN-00070</t>
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>44706</v>
+        <v>44696</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>44706</v>
-      </c>
-      <c r="E35" s="5" t="n">
-        <v>1</v>
+        <v>44696</v>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G35" s="3" t="n"/>
+      <c r="G35" s="6" t="n"/>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="I35" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="J35" s="5" t="n"/>
-      <c r="K35" s="3" t="n"/>
+      <c r="K35" s="4" t="n"/>
       <c r="L35" s="4" t="n"/>
       <c r="M35" s="3" t="n"/>
     </row>
@@ -1870,29 +1874,27 @@
       <c r="A36" s="3" t="n"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>MLS-00020</t>
+          <t>CLN-00120</t>
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>44707</v>
+        <v>44699</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>44712</v>
+        <v>44699</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>Res. - Renter</t>
-        </is>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>5881</v>
-      </c>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G36" s="6" t="n"/>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>AirBnb</t>
+          <t>MS-Add</t>
         </is>
       </c>
       <c r="I36" s="5" t="inlineStr">
@@ -1901,7 +1903,7 @@
         </is>
       </c>
       <c r="J36" s="5" t="n"/>
-      <c r="K36" s="3" t="n"/>
+      <c r="K36" s="4" t="n"/>
       <c r="L36" s="4" t="n"/>
       <c r="M36" s="3" t="n"/>
     </row>
@@ -1909,29 +1911,29 @@
       <c r="A37" s="3" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>MLS-00060</t>
+          <t>MLS-00040</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>44713</v>
+        <v>44700</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>44742</v>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>44705</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>5</v>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>Hold - Renter</t>
-        </is>
-      </c>
-      <c r="G37" s="3" t="n"/>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>11678.8</v>
+      </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>WineClub</t>
+          <t>AirBnb</t>
         </is>
       </c>
       <c r="I37" s="5" t="inlineStr">
@@ -1940,7 +1942,7 @@
         </is>
       </c>
       <c r="J37" s="5" t="n"/>
-      <c r="K37" s="3" t="n"/>
+      <c r="K37" s="4" t="n"/>
       <c r="L37" s="4" t="n"/>
       <c r="M37" s="3" t="n"/>
     </row>
@@ -1948,14 +1950,14 @@
       <c r="A38" s="3" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>CLN-00040</t>
+          <t>CLN-00080</t>
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>44743</v>
+        <v>44706</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>44743</v>
+        <v>44706</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>1</v>
@@ -1965,7 +1967,7 @@
           <t>Hold - Clean</t>
         </is>
       </c>
-      <c r="G38" s="3" t="n"/>
+      <c r="G38" s="6" t="n"/>
       <c r="H38" s="5" t="inlineStr">
         <is>
           <t>MS</t>
@@ -1977,7 +1979,7 @@
         </is>
       </c>
       <c r="J38" s="5" t="n"/>
-      <c r="K38" s="3" t="n"/>
+      <c r="K38" s="4" t="n"/>
       <c r="L38" s="4" t="n"/>
       <c r="M38" s="3" t="n"/>
     </row>
@@ -1985,38 +1987,38 @@
       <c r="A39" s="3" t="n"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>BKG-11547</t>
+          <t>MLS-00050</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>44775</v>
+        <v>44707</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>44780</v>
+        <v>44712</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
           <t>Res. - Renter</t>
         </is>
       </c>
-      <c r="G39" s="3" t="n">
-        <v>12500</v>
+      <c r="G39" s="6" t="n">
+        <v>5881</v>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>AirBnb</t>
         </is>
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="J39" s="5" t="n"/>
-      <c r="K39" s="3" t="n"/>
+      <c r="K39" s="4" t="n"/>
       <c r="L39" s="4" t="n"/>
       <c r="M39" s="3" t="n"/>
     </row>
@@ -2024,26 +2026,26 @@
       <c r="A40" s="3" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>HLD-22617</t>
+          <t>HLD-22839</t>
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>44919</v>
+        <v>44713</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>44930</v>
+        <v>44742</v>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>Hold - Other</t>
-        </is>
-      </c>
-      <c r="G40" s="3" t="n"/>
+          <t>Hold - Owner</t>
+        </is>
+      </c>
+      <c r="G40" s="6" t="n"/>
       <c r="H40" s="5" t="inlineStr">
         <is>
           <t>BP</t>
@@ -2055,9 +2057,239 @@
         </is>
       </c>
       <c r="J40" s="5" t="n"/>
-      <c r="K40" s="3" t="n"/>
+      <c r="K40" s="4" t="n"/>
       <c r="L40" s="4" t="n"/>
       <c r="M40" s="3" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>CLN-00090</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>44713</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G41" s="6" t="n"/>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J41" s="5" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>BKG-11547</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>44775</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>44780</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>12500</v>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="I42" s="5" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="J42" s="5" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>CLN-00130</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>44805</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G43" s="6" t="n"/>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>MS-Add</t>
+        </is>
+      </c>
+      <c r="I43" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J43" s="5" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>MLS-00060</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>44806</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>44808</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>6954</v>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="I44" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J44" s="5" t="n"/>
+      <c r="K44" s="4" t="n">
+        <v>44595</v>
+      </c>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="3" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>CLN-00140</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>44809</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>44809</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G45" s="6" t="n"/>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>MS-Add</t>
+        </is>
+      </c>
+      <c r="I45" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J45" s="5" t="n"/>
+      <c r="K45" s="4" t="n"/>
+      <c r="L45" s="4" t="n"/>
+      <c r="M45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>HLD-22617</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>44919</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>44930</v>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>Hold - Other</t>
+        </is>
+      </c>
+      <c r="G46" s="6" t="n"/>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="J46" s="5" t="n"/>
+      <c r="K46" s="4" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2070,7 +2302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2082,6 +2314,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -2147,6 +2380,121 @@
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>CLN-00130</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>44805</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>MS-Add</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>MLS-00060</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>44806</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>44808</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>6954</v>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n">
+        <v>44595</v>
+      </c>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>CLN-00140</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>44809</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>44809</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>MS-Add</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2171,6 +2519,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -2260,6 +2609,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -2349,6 +2699,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -2450,7 +2801,7 @@
         </is>
       </c>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="3" t="n"/>
     </row>
@@ -2477,6 +2828,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -2578,7 +2930,7 @@
         </is>
       </c>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="3" t="n"/>
     </row>
@@ -2619,7 +2971,7 @@
         </is>
       </c>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="3" t="n"/>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="3" t="n"/>
     </row>
@@ -2658,7 +3010,7 @@
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="3" t="n"/>
+      <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="3" t="n"/>
     </row>
@@ -2697,7 +3049,7 @@
         </is>
       </c>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="3" t="n"/>
+      <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="3" t="n"/>
     </row>
@@ -2738,7 +3090,7 @@
         </is>
       </c>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="3" t="n"/>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="3" t="n"/>
     </row>
@@ -2777,7 +3129,7 @@
         </is>
       </c>
       <c r="J7" s="5" t="n"/>
-      <c r="K7" s="3" t="n"/>
+      <c r="K7" s="4" t="n"/>
       <c r="L7" s="4" t="n"/>
       <c r="M7" s="3" t="n"/>
     </row>
@@ -2785,7 +3137,7 @@
       <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MLH-00010</t>
+          <t>HLD-22490</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
@@ -2814,7 +3166,7 @@
         </is>
       </c>
       <c r="J8" s="5" t="n"/>
-      <c r="K8" s="3" t="n"/>
+      <c r="K8" s="4" t="n"/>
       <c r="L8" s="4" t="n"/>
       <c r="M8" s="3" t="n"/>
     </row>
@@ -2841,6 +3193,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -2942,7 +3295,7 @@
         </is>
       </c>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="3" t="n"/>
     </row>
@@ -2983,7 +3336,7 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="K3" s="3" t="n"/>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="3" t="n"/>
     </row>
@@ -3026,7 +3379,7 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="3" t="n"/>
     </row>
@@ -3067,7 +3420,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="3" t="n"/>
     </row>
@@ -3082,7 +3435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3094,6 +3447,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -3195,7 +3549,7 @@
         </is>
       </c>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="3" t="n"/>
     </row>
@@ -3236,7 +3590,7 @@
         </is>
       </c>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="3" t="n"/>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="3" t="n"/>
     </row>
@@ -3244,7 +3598,7 @@
       <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>HLD-22511</t>
+          <t>CLN-00030</t>
         </is>
       </c>
       <c r="C4" s="4" t="n">
@@ -3275,7 +3629,7 @@
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="3" t="n"/>
+      <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="3" t="n"/>
     </row>
@@ -3283,66 +3637,66 @@
       <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>MLS-00040</t>
+          <t>CLN-00100</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
         <v>44629</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>44633</v>
+        <v>44629</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Hold - Renter</t>
+          <t>Hold - Clean</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
       <c r="H5" s="5" t="inlineStr">
         <is>
+          <t>MS-Add</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="4" t="n">
-        <v>44593</v>
-      </c>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>CLN-00060</t>
+          <t>MLS-00020</t>
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>44634</v>
+        <v>44630</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Hold - Clean</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="n"/>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>5175</v>
+      </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>MS-Add</t>
+          <t>Airbnb</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
@@ -3351,7 +3705,7 @@
         </is>
       </c>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="3" t="n"/>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="3" t="n"/>
     </row>
@@ -3359,17 +3713,19 @@
       <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CLN-00070</t>
+          <t>CLN-00040</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>44643</v>
+        <v>44634</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>44643</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>1</v>
+        <v>44634</v>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
@@ -3379,16 +3735,16 @@
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>MS-Add</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="J7" s="5" t="n"/>
-      <c r="K7" s="3" t="n"/>
+      <c r="K7" s="4" t="n"/>
       <c r="L7" s="4" t="n"/>
       <c r="M7" s="3" t="n"/>
     </row>
@@ -3396,29 +3752,27 @@
       <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MLS-00050</t>
+          <t>CLN-00110</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>44647</v>
+        <v>44643</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Res. - Renter</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>5684.28</v>
-      </c>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>Airbnb</t>
+          <t>MS-Add</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
@@ -3427,7 +3781,7 @@
         </is>
       </c>
       <c r="J8" s="5" t="n"/>
-      <c r="K8" s="3" t="n"/>
+      <c r="K8" s="4" t="n"/>
       <c r="L8" s="4" t="n"/>
       <c r="M8" s="3" t="n"/>
     </row>
@@ -3435,36 +3789,38 @@
       <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>OWN-00010</t>
+          <t>MLS-00030</t>
         </is>
       </c>
       <c r="C9" s="4" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>44647</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>44649</v>
-      </c>
       <c r="E9" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Res.-Owner</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="n"/>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>5684.28</v>
+      </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="J9" s="5" t="n"/>
-      <c r="K9" s="3" t="n"/>
+      <c r="K9" s="4" t="n"/>
       <c r="L9" s="4" t="n"/>
       <c r="M9" s="3" t="n"/>
     </row>
@@ -3472,14 +3828,14 @@
       <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>CLN-00080</t>
+          <t>CLN-00050</t>
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>44650</v>
+        <v>44647</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>44650</v>
+        <v>44647</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1</v>
@@ -3492,7 +3848,7 @@
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>MS-Add</t>
+          <t>Marthas</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
@@ -3501,9 +3857,83 @@
         </is>
       </c>
       <c r="J10" s="5" t="n"/>
-      <c r="K10" s="3" t="n"/>
+      <c r="K10" s="4" t="n"/>
       <c r="L10" s="4" t="n"/>
       <c r="M10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>OWN-00010</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>44647</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>44649</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Res.-Owner</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>CLN-00060</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>44650</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>44650</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>Marthas</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="4" t="n"/>
+      <c r="M12" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3528,6 +3958,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -3629,7 +4060,7 @@
         </is>
       </c>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="3" t="n"/>
     </row>
@@ -3670,7 +4101,7 @@
         </is>
       </c>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="3" t="n"/>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="3" t="n"/>
     </row>
@@ -3709,7 +4140,7 @@
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="3" t="n"/>
+      <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="3" t="n"/>
     </row>
@@ -3748,7 +4179,7 @@
         </is>
       </c>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="3" t="n"/>
+      <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="3" t="n"/>
     </row>
@@ -3789,7 +4220,7 @@
         </is>
       </c>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="3" t="n"/>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="3" t="n"/>
     </row>
@@ -3828,7 +4259,7 @@
         </is>
       </c>
       <c r="J7" s="5" t="n"/>
-      <c r="K7" s="3" t="n"/>
+      <c r="K7" s="4" t="n"/>
       <c r="L7" s="4" t="n"/>
       <c r="M7" s="3" t="n"/>
     </row>
@@ -3867,7 +4298,7 @@
         </is>
       </c>
       <c r="J8" s="5" t="n"/>
-      <c r="K8" s="3" t="n"/>
+      <c r="K8" s="4" t="n"/>
       <c r="L8" s="4" t="n"/>
       <c r="M8" s="3" t="n"/>
     </row>
@@ -3908,7 +4339,7 @@
         </is>
       </c>
       <c r="J9" s="5" t="n"/>
-      <c r="K9" s="3" t="n"/>
+      <c r="K9" s="4" t="n"/>
       <c r="L9" s="4" t="n"/>
       <c r="M9" s="3" t="n"/>
     </row>
@@ -3923,7 +4354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3935,6 +4366,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -4036,7 +4468,7 @@
         </is>
       </c>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="3" t="n"/>
     </row>
@@ -4075,7 +4507,7 @@
         </is>
       </c>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="3" t="n"/>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="3" t="n"/>
     </row>
@@ -4116,7 +4548,7 @@
         </is>
       </c>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="3" t="n"/>
+      <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="3" t="n"/>
     </row>
@@ -4124,7 +4556,7 @@
       <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>HLD-22530</t>
+          <t>CLN-00070</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
@@ -4155,7 +4587,7 @@
         </is>
       </c>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="3" t="n"/>
+      <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="3" t="n"/>
     </row>
@@ -4163,29 +4595,27 @@
       <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MLS-00030</t>
+          <t>CLN-00120</t>
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>44705</v>
+        <v>44699</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Res. - Renter</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>11678.8</v>
-      </c>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>AirBnb</t>
+          <t>MS-Add</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
@@ -4194,7 +4624,7 @@
         </is>
       </c>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="3" t="n"/>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="3" t="n"/>
     </row>
@@ -4202,36 +4632,38 @@
       <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CLN-00030</t>
+          <t>MLS-00040</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>44706</v>
+        <v>44700</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>44706</v>
+        <v>44705</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Hold - Clean</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="n"/>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>11678.8</v>
+      </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
+          <t>AirBnb</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="J7" s="5" t="n"/>
-      <c r="K7" s="3" t="n"/>
+      <c r="K7" s="4" t="n"/>
       <c r="L7" s="4" t="n"/>
       <c r="M7" s="3" t="n"/>
     </row>
@@ -4239,29 +4671,27 @@
       <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MLS-00020</t>
+          <t>CLN-00080</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>44707</v>
+        <v>44706</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>44712</v>
+        <v>44706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Res. - Renter</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>5881</v>
-      </c>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>AirBnb</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
@@ -4270,9 +4700,48 @@
         </is>
       </c>
       <c r="J8" s="5" t="n"/>
-      <c r="K8" s="3" t="n"/>
+      <c r="K8" s="4" t="n"/>
       <c r="L8" s="4" t="n"/>
       <c r="M8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>MLS-00050</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>44707</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>44712</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Res. - Renter</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>5881</v>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>AirBnb</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4285,7 +4754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,6 +4766,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -4367,7 +4837,7 @@
       <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>MLS-00060</t>
+          <t>HLD-22839</t>
         </is>
       </c>
       <c r="C2" s="4" t="n">
@@ -4383,24 +4853,61 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Hold - Renter</t>
+          <t>Hold - Owner</t>
         </is>
       </c>
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>WineClub</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>CLN-00090</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>44713</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Hold - Clean</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4413,7 +4920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4425,6 +4932,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -4490,43 +4998,6 @@
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>CLN-00040</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>44743</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Hold - Clean</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4551,6 +5022,7 @@
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="12"/>
     <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
     <col customWidth="1" max="8" min="8" width="17"/>
     <col customWidth="1" max="9" min="9" width="15"/>
     <col customWidth="1" max="10" min="10" width="12"/>
@@ -4652,7 +5124,7 @@
         </is>
       </c>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="3" t="n"/>
     </row>

--- a/Attune_Estate_2022_Bookings.xlsx
+++ b/Attune_Estate_2022_Bookings.xlsx
@@ -1,38 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ken\Dropbox\LinuxShare\python\ecobee\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C300245F-66C3-4805-A210-E5C1537FB5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Listing" sheetId="1" r:id="rId1"/>
-    <sheet name="Jan" sheetId="2" r:id="rId2"/>
-    <sheet name="Feb" sheetId="3" r:id="rId3"/>
-    <sheet name="Mar" sheetId="4" r:id="rId4"/>
-    <sheet name="Apr" sheetId="5" r:id="rId5"/>
-    <sheet name="May" sheetId="6" r:id="rId6"/>
-    <sheet name="Jun" sheetId="7" r:id="rId7"/>
-    <sheet name="Jul" sheetId="8" r:id="rId8"/>
-    <sheet name="Aug" sheetId="9" r:id="rId9"/>
-    <sheet name="Sep" sheetId="10" r:id="rId10"/>
-    <sheet name="Oct" sheetId="11" r:id="rId11"/>
-    <sheet name="Nov" sheetId="12" r:id="rId12"/>
-    <sheet name="Dec" sheetId="13" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Listing" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Apr" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="May" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jun" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jul" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aug" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sep" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Oct" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nov" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>Booking</t>
   </si>
@@ -211,9 +206,6 @@
     <t>MLS-00100</t>
   </si>
   <si>
-    <t>HLD-22640</t>
-  </si>
-  <si>
     <t>HLD-22429</t>
   </si>
   <si>
@@ -370,6 +362,12 @@
     <t>Owners Hold</t>
   </si>
   <si>
+    <t>CLN-00350</t>
+  </si>
+  <si>
+    <t>MLS-00220</t>
+  </si>
+  <si>
     <t>CLN-00200</t>
   </si>
   <si>
@@ -391,6 +389,15 @@
     <t>CLN-00320</t>
   </si>
   <si>
+    <t>MLS-00230</t>
+  </si>
+  <si>
+    <t>Airbnb Luxe</t>
+  </si>
+  <si>
+    <t>CLN-00360</t>
+  </si>
+  <si>
     <t>CLN-00330</t>
   </si>
   <si>
@@ -407,45 +414,58 @@
   </si>
   <si>
     <t>Hold - Other</t>
+  </si>
+  <si>
+    <t>CLN-00370</t>
+  </si>
+  <si>
+    <t>MLS-00240</t>
+  </si>
+  <si>
+    <t>CLN-00380</t>
+  </si>
+  <si>
+    <t>CLN-00390</t>
+  </si>
+  <si>
+    <t>MLS-00250</t>
+  </si>
+  <si>
+    <t>Re-Book</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YYYY"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <b val="1"/>
       <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -460,53 +480,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -794,25 +792,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,15 +857,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="n">
         <v>44574</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44574</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -867,27 +874,27 @@
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="n"/>
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="n">
         <v>44575</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44577</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -896,7 +903,7 @@
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="6" t="n">
         <v>5700</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -905,22 +912,22 @@
       <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="6">
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n">
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="n">
         <v>44578</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>44578</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -929,27 +936,27 @@
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="n"/>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>44580</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>44580</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -958,27 +965,27 @@
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="n"/>
       <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>44581</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>44583</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -987,7 +994,7 @@
       <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="6" t="n">
         <v>5700</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -996,22 +1003,22 @@
       <c r="I6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="6">
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="3" t="n">
         <v>1900</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="n">
         <v>44584</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>44584</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1020,56 +1027,56 @@
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="n"/>
       <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>44588</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>44589</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="n"/>
       <c r="H8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="n">
         <v>44603</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>44606</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1078,36 +1085,36 @@
       <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="n"/>
       <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="3" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>44609</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>44609</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="n"/>
       <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1117,28 +1124,28 @@
       <c r="J10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="3" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="n"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>44610</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="6" t="n">
         <v>5881</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -1150,30 +1157,30 @@
       <c r="J11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="6">
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="3" t="n">
         <v>1960.33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="n"/>
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="n">
         <v>44614</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>44614</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="n"/>
       <c r="H12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1183,57 +1190,57 @@
       <c r="J12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="4" t="n"/>
+      <c r="M12" s="3" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="n"/>
       <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="n">
         <v>44615</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>44615</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="n"/>
       <c r="H13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="4" t="n"/>
+      <c r="L13" s="4" t="n"/>
+      <c r="M13" s="3" t="n"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="n"/>
       <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="n">
         <v>44616</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>44619</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="6" t="n">
         <v>5006</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -1242,33 +1249,33 @@
       <c r="I14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4">
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="6">
+      <c r="L14" s="4" t="n"/>
+      <c r="M14" s="3" t="n">
         <v>1668.66</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3" t="n"/>
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4" t="n">
         <v>44620</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="n">
         <v>44620</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6" t="n"/>
       <c r="H15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1278,19 +1285,19 @@
       <c r="J15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="K15" s="4" t="n"/>
+      <c r="L15" s="4" t="n"/>
+      <c r="M15" s="3" t="n"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="n"/>
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="n">
         <v>44623</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="n">
         <v>44623</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1299,27 +1306,27 @@
       <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="n"/>
       <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
+      <c r="J16" s="5" t="n"/>
+      <c r="K16" s="4" t="n"/>
+      <c r="L16" s="4" t="n"/>
+      <c r="M16" s="3" t="n"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="n"/>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="4" t="n">
         <v>44624</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="4" t="n">
         <v>44626</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1328,7 +1335,7 @@
       <c r="F17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="6" t="n">
         <v>5700</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -1337,22 +1344,22 @@
       <c r="I17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="6">
+      <c r="J17" s="5" t="n"/>
+      <c r="K17" s="4" t="n"/>
+      <c r="L17" s="4" t="n"/>
+      <c r="M17" s="3" t="n">
         <v>1900</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3" t="n"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="4" t="n">
         <v>44627</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="4" t="n">
         <v>44627</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1361,36 +1368,36 @@
       <c r="F18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="n"/>
       <c r="H18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="J18" s="5" t="n"/>
+      <c r="K18" s="4" t="n"/>
+      <c r="L18" s="4" t="n"/>
+      <c r="M18" s="3" t="n"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3" t="n"/>
       <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="4" t="n">
         <v>44630</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="4" t="n">
         <v>44633</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="6" t="n">
         <v>5175</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -1399,89 +1406,89 @@
       <c r="I19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="6">
+      <c r="J19" s="5" t="n"/>
+      <c r="K19" s="4" t="n"/>
+      <c r="L19" s="4" t="n"/>
+      <c r="M19" s="3" t="n">
         <v>1725</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3" t="n"/>
       <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="4" t="n">
         <v>44634</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="4" t="n">
         <v>44634</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="n"/>
       <c r="H20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="J20" s="5" t="n"/>
+      <c r="K20" s="4" t="n"/>
+      <c r="L20" s="4" t="n"/>
+      <c r="M20" s="3" t="n"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3" t="n"/>
       <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="4" t="n">
         <v>44636</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="4" t="n">
         <v>44636</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6" t="n"/>
       <c r="H21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="J21" s="5" t="n"/>
+      <c r="K21" s="4" t="n"/>
+      <c r="L21" s="4" t="n"/>
+      <c r="M21" s="3" t="n"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="n"/>
       <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="4" t="n">
         <v>44637</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="4" t="n">
         <v>44640</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="6" t="n">
         <v>4832</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -1490,89 +1497,89 @@
       <c r="I22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="6">
+      <c r="J22" s="5" t="n"/>
+      <c r="K22" s="4" t="n"/>
+      <c r="L22" s="4" t="n"/>
+      <c r="M22" s="3" t="n">
         <v>1610.66</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="n"/>
       <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="4" t="n">
         <v>44641</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="4" t="n">
         <v>44641</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6" t="n"/>
       <c r="H23" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="J23" s="5" t="n"/>
+      <c r="K23" s="4" t="n"/>
+      <c r="L23" s="4" t="n"/>
+      <c r="M23" s="3" t="n"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="n"/>
       <c r="B24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="4" t="n">
         <v>44644</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="4" t="n">
         <v>44644</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6" t="n"/>
       <c r="H24" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="J24" s="5" t="n"/>
+      <c r="K24" s="4" t="n"/>
+      <c r="L24" s="4" t="n"/>
+      <c r="M24" s="3" t="n"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3" t="n"/>
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="4" t="n">
         <v>44645</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="4" t="n">
         <v>44647</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="6" t="n">
         <v>3405</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -1581,118 +1588,118 @@
       <c r="I25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="6">
+      <c r="J25" s="5" t="n"/>
+      <c r="K25" s="4" t="n"/>
+      <c r="L25" s="4" t="n"/>
+      <c r="M25" s="3" t="n">
         <v>1702.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3" t="n"/>
       <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="4" t="n">
         <v>44647</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="4" t="n">
         <v>44649</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6" t="n"/>
       <c r="H26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
+      <c r="J26" s="5" t="n"/>
+      <c r="K26" s="4" t="n"/>
+      <c r="L26" s="4" t="n"/>
+      <c r="M26" s="3" t="n"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3" t="n"/>
       <c r="B27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="4" t="n">
         <v>44650</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="4" t="n">
         <v>44650</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="G27" s="6" t="n"/>
       <c r="H27" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
+      <c r="J27" s="5" t="n"/>
+      <c r="K27" s="4" t="n"/>
+      <c r="L27" s="4" t="n"/>
+      <c r="M27" s="3" t="n"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3" t="n"/>
       <c r="B28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="4" t="n">
         <v>44651</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="4" t="n">
         <v>44651</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="6" t="n"/>
       <c r="H28" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
+      <c r="J28" s="5" t="n"/>
+      <c r="K28" s="4" t="n"/>
+      <c r="L28" s="4" t="n"/>
+      <c r="M28" s="3" t="n"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3" t="n"/>
       <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="4" t="n">
         <v>44652</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="4" t="n">
         <v>44654</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="6" t="n">
         <v>2893.59</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -1701,51 +1708,51 @@
       <c r="I29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="6">
+      <c r="J29" s="5" t="n"/>
+      <c r="K29" s="4" t="n"/>
+      <c r="L29" s="4" t="n"/>
+      <c r="M29" s="3" t="n">
         <v>1446.79</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3" t="n"/>
       <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="6" t="n"/>
       <c r="H30" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
+      <c r="J30" s="5" t="n"/>
+      <c r="K30" s="4" t="n"/>
+      <c r="L30" s="4" t="n"/>
+      <c r="M30" s="3" t="n"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="n"/>
       <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="4" t="n">
         <v>44659</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="4" t="n">
         <v>44659</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1754,27 +1761,27 @@
       <c r="F31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6" t="n"/>
       <c r="H31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
+      <c r="J31" s="5" t="n"/>
+      <c r="K31" s="4" t="n"/>
+      <c r="L31" s="4" t="n"/>
+      <c r="M31" s="3" t="n"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="n"/>
       <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="4" t="n">
         <v>44660</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="4" t="n">
         <v>44664</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -1783,7 +1790,7 @@
       <c r="F32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="6" t="n">
         <v>9875</v>
       </c>
       <c r="H32" s="5" t="s">
@@ -1792,56 +1799,56 @@
       <c r="I32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="6">
+      <c r="J32" s="5" t="n"/>
+      <c r="K32" s="4" t="n"/>
+      <c r="L32" s="4" t="n"/>
+      <c r="M32" s="3" t="n">
         <v>1975</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="n"/>
       <c r="B33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="4" t="n">
         <v>44665</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="4" t="n">
         <v>44668</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="6" t="n">
+        <v>5286</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="5" t="n"/>
+      <c r="K33" s="4" t="n"/>
+      <c r="L33" s="4" t="n"/>
+      <c r="M33" s="3" t="n">
         <v>1762</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="6">
-        <v>587.33000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="n"/>
       <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="4">
-        <v>44665</v>
-      </c>
-      <c r="D34" s="4">
-        <v>44665</v>
+      <c r="C34" s="4" t="n">
+        <v>44669</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>44669</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>13</v>
@@ -1849,90 +1856,90 @@
       <c r="F34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="6"/>
+      <c r="G34" s="6" t="n"/>
       <c r="H34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
+      <c r="J34" s="5" t="n"/>
+      <c r="K34" s="4" t="n"/>
+      <c r="L34" s="4" t="n"/>
+      <c r="M34" s="3" t="n"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="n"/>
       <c r="B35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="4">
-        <v>44669</v>
-      </c>
-      <c r="D35" s="4">
-        <v>44669</v>
+      <c r="C35" s="4" t="n">
+        <v>44670</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>44674</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>9875</v>
+      </c>
       <c r="H35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
+      <c r="J35" s="5" t="n"/>
+      <c r="K35" s="4" t="n"/>
+      <c r="L35" s="4" t="n"/>
+      <c r="M35" s="3" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="n"/>
       <c r="B36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="4">
-        <v>44670</v>
-      </c>
-      <c r="D36" s="4">
-        <v>44674</v>
+      <c r="C36" s="4" t="n">
+        <v>44675</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <v>44675</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="6">
-        <v>9875</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" s="6" t="n"/>
       <c r="H36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="6">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
+      <c r="J36" s="5" t="n"/>
+      <c r="K36" s="4" t="n"/>
+      <c r="L36" s="4" t="n"/>
+      <c r="M36" s="3" t="n"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="n"/>
       <c r="B37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="4">
-        <v>44675</v>
-      </c>
-      <c r="D37" s="4">
-        <v>44675</v>
+      <c r="C37" s="4" t="n">
+        <v>44677</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>44677</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>13</v>
@@ -1940,1694 +1947,1938 @@
       <c r="F37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="6"/>
+      <c r="G37" s="6" t="n"/>
       <c r="H37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
+      <c r="J37" s="5" t="n"/>
+      <c r="K37" s="4" t="n"/>
+      <c r="L37" s="4" t="n"/>
+      <c r="M37" s="3" t="n"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="n"/>
       <c r="B38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="4">
-        <v>44677</v>
-      </c>
-      <c r="D38" s="4">
-        <v>44677</v>
+      <c r="C38" s="4" t="n">
+        <v>44678</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>44684</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>13825</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="5" t="n"/>
+      <c r="K38" s="4" t="n"/>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="3" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="n"/>
+      <c r="B39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>44685</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>44685</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="4">
-        <v>44678</v>
-      </c>
-      <c r="D39" s="4">
-        <v>44684</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="6">
-        <v>13825</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" s="6" t="n"/>
       <c r="H39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="6">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
+      <c r="J39" s="5" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="3" t="n"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="3" t="n"/>
       <c r="B40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="4">
-        <v>44685</v>
-      </c>
-      <c r="D40" s="4">
-        <v>44685</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>13</v>
+      <c r="C40" s="4" t="n">
+        <v>44686</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>44689</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>5615</v>
+      </c>
       <c r="H40" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="J40" s="5" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="3" t="n">
+        <v>1871.66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="3" t="n"/>
       <c r="B41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="4">
-        <v>44686</v>
-      </c>
-      <c r="D41" s="4">
-        <v>44689</v>
-      </c>
-      <c r="E41" s="5">
-        <v>3</v>
+      <c r="C41" s="4" t="n">
+        <v>44690</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>44690</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="6">
-        <v>5615</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" s="6" t="n"/>
       <c r="H41" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="6">
-        <v>1871.66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
+      <c r="J41" s="5" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="3" t="n"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="3" t="n"/>
       <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="4">
-        <v>44690</v>
-      </c>
-      <c r="D42" s="4">
-        <v>44690</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1</v>
+      <c r="C42" s="4" t="n">
+        <v>44691</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>44691</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="6"/>
+      <c r="G42" s="6" t="n"/>
       <c r="H42" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="6"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="J42" s="5" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="3" t="n"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="3" t="n"/>
       <c r="B43" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="4">
-        <v>44691</v>
-      </c>
-      <c r="D43" s="4">
-        <v>44691</v>
+      <c r="C43" s="4" t="n">
+        <v>44692</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>44695</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>7900</v>
+      </c>
       <c r="H43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
+      <c r="J43" s="5" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="3" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="3" t="n"/>
       <c r="B44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="4">
-        <v>44692</v>
-      </c>
-      <c r="D44" s="4">
-        <v>44695</v>
+      <c r="C44" s="4" t="n">
+        <v>44696</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>44696</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="6">
-        <v>7900</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" s="6" t="n"/>
       <c r="H44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="6">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
+      <c r="J44" s="5" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="3" t="n"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="3" t="n"/>
       <c r="B45" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="4">
-        <v>44696</v>
-      </c>
-      <c r="D45" s="4">
-        <v>44696</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>13</v>
+      <c r="C45" s="4" t="n">
+        <v>44699</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>44699</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="6"/>
+      <c r="G45" s="6" t="n"/>
       <c r="H45" s="5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="6"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="J45" s="5" t="n"/>
+      <c r="K45" s="4" t="n"/>
+      <c r="L45" s="4" t="n"/>
+      <c r="M45" s="3" t="n"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="3" t="n"/>
       <c r="B46" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="4">
-        <v>44699</v>
-      </c>
-      <c r="D46" s="4">
-        <v>44699</v>
-      </c>
-      <c r="E46" s="5">
-        <v>1</v>
+      <c r="C46" s="4" t="n">
+        <v>44700</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>44705</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>5</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>11678.8</v>
+      </c>
       <c r="H46" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
+      <c r="J46" s="5" t="n"/>
+      <c r="K46" s="4" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="3" t="n">
+        <v>2335.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="3" t="n"/>
       <c r="B47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="4">
-        <v>44700</v>
-      </c>
-      <c r="D47" s="4">
-        <v>44705</v>
-      </c>
-      <c r="E47" s="5">
-        <v>5</v>
+      <c r="C47" s="4" t="n">
+        <v>44706</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>44706</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="6">
-        <v>11678.8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" s="6" t="n"/>
       <c r="H47" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="6">
-        <v>2335.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
+      <c r="J47" s="5" t="n"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="3" t="n"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="3" t="n"/>
       <c r="B48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="4">
-        <v>44706</v>
-      </c>
-      <c r="D48" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E48" s="5">
-        <v>1</v>
+      <c r="C48" s="4" t="n">
+        <v>44707</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>44712</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>5881</v>
+      </c>
       <c r="H48" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="6"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
+      <c r="J48" s="5" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="3" t="n">
+        <v>1960.33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="3" t="n"/>
       <c r="B49" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="4">
-        <v>44707</v>
-      </c>
-      <c r="D49" s="4">
-        <v>44712</v>
-      </c>
-      <c r="E49" s="5">
-        <v>3</v>
+      <c r="C49" s="4" t="n">
+        <v>44713</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="6">
-        <v>5881</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" s="6" t="n"/>
       <c r="H49" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="6">
-        <v>1960.33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
+      <c r="J49" s="5" t="n"/>
+      <c r="K49" s="4" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="3" t="n"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="3" t="n"/>
       <c r="B50" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="4">
-        <v>44713</v>
-      </c>
-      <c r="D50" s="4">
-        <v>44713</v>
-      </c>
-      <c r="E50" s="5">
-        <v>1</v>
+      <c r="C50" s="4" t="n">
+        <v>44714</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>44719</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>5</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>11590</v>
+      </c>
       <c r="H50" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
+      <c r="J50" s="5" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="3" t="n">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="3" t="n"/>
       <c r="B51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="4">
-        <v>44714</v>
-      </c>
-      <c r="D51" s="4">
-        <v>44719</v>
-      </c>
-      <c r="E51" s="5">
-        <v>5</v>
+      <c r="C51" s="4" t="n">
+        <v>44720</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>44720</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="6">
-        <v>11590</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" s="6" t="n"/>
       <c r="H51" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="6">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
+      <c r="J51" s="5" t="n"/>
+      <c r="K51" s="4" t="n"/>
+      <c r="L51" s="4" t="n"/>
+      <c r="M51" s="3" t="n"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="3" t="n"/>
       <c r="B52" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="4">
-        <v>44720</v>
-      </c>
-      <c r="D52" s="4">
-        <v>44720</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="C52" s="4" t="n">
+        <v>44722</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>44722</v>
+      </c>
+      <c r="E52" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="6"/>
+      <c r="G52" s="6" t="n"/>
       <c r="H52" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="6"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
+      <c r="J52" s="5" t="n"/>
+      <c r="K52" s="4" t="n"/>
+      <c r="L52" s="4" t="n"/>
+      <c r="M52" s="3" t="n"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="3" t="n"/>
       <c r="B53" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="4">
-        <v>44722</v>
-      </c>
-      <c r="D53" s="4">
-        <v>44722</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1</v>
+      <c r="C53" s="4" t="n">
+        <v>44723</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>11490</v>
+      </c>
       <c r="H53" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="6"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
+      <c r="J53" s="5" t="n"/>
+      <c r="K53" s="4" t="n"/>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="3" t="n">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="3" t="n"/>
       <c r="B54" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="4">
-        <v>44723</v>
-      </c>
-      <c r="D54" s="4">
-        <v>44729</v>
-      </c>
-      <c r="E54" s="5">
-        <v>6</v>
+      <c r="C54" s="4" t="n">
+        <v>44730</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>44730</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="6">
-        <v>11490</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" s="6" t="n"/>
       <c r="H54" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="6">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
+      <c r="J54" s="5" t="n"/>
+      <c r="K54" s="4" t="n"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="3" t="n"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="3" t="n"/>
       <c r="B55" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="4">
-        <v>44730</v>
-      </c>
-      <c r="D55" s="4">
-        <v>44730</v>
-      </c>
-      <c r="E55" s="5">
+      <c r="C55" s="4" t="n">
+        <v>44735</v>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>44735</v>
+      </c>
+      <c r="E55" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="6"/>
+      <c r="G55" s="6" t="n"/>
       <c r="H55" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="6"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
+      <c r="J55" s="5" t="n"/>
+      <c r="K55" s="4" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="3" t="n"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="3" t="n"/>
       <c r="B56" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="4">
-        <v>44735</v>
-      </c>
-      <c r="D56" s="4">
-        <v>44735</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1</v>
+      <c r="C56" s="4" t="n">
+        <v>44736</v>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>44751</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>16</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G56" s="6" t="n">
+        <v>19958</v>
+      </c>
       <c r="H56" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="5" t="n"/>
+      <c r="K56" s="4" t="n"/>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="3" t="n">
+        <v>1247.37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="3" t="n"/>
+      <c r="B57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>44752</v>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>44752</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="6" t="n"/>
+      <c r="H57" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="6"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="4">
-        <v>44736</v>
-      </c>
-      <c r="D57" s="4">
-        <v>44751</v>
-      </c>
-      <c r="E57" s="5">
-        <v>16</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="6">
-        <v>19958</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="I57" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="6">
-        <v>1247.3699999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
+      <c r="J57" s="5" t="n"/>
+      <c r="K57" s="4" t="n"/>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="3" t="n"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="3" t="n"/>
       <c r="B58" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="4">
-        <v>44752</v>
-      </c>
-      <c r="D58" s="4">
-        <v>44752</v>
-      </c>
-      <c r="E58" s="5">
+      <c r="C58" s="4" t="n">
+        <v>44755</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>44755</v>
+      </c>
+      <c r="E58" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6" t="n"/>
       <c r="H58" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="6"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
+      <c r="J58" s="5" t="n"/>
+      <c r="K58" s="4" t="n"/>
+      <c r="L58" s="4" t="n"/>
+      <c r="M58" s="3" t="n"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="3" t="n"/>
       <c r="B59" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="4">
-        <v>44755</v>
-      </c>
-      <c r="D59" s="4">
-        <v>44755</v>
-      </c>
-      <c r="E59" s="5">
-        <v>1</v>
+      <c r="C59" s="4" t="n">
+        <v>44756</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>44759</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G59" s="6" t="n">
+        <v>6258</v>
+      </c>
       <c r="H59" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" s="5" t="n"/>
+      <c r="K59" s="4" t="n"/>
+      <c r="L59" s="4" t="n"/>
+      <c r="M59" s="3" t="n">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="3" t="n"/>
+      <c r="B60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>44760</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>44760</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="6" t="n"/>
+      <c r="H60" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="6"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="4">
-        <v>44756</v>
-      </c>
-      <c r="D60" s="4">
-        <v>44759</v>
-      </c>
-      <c r="E60" s="5">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
+      <c r="I60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" s="5" t="n"/>
+      <c r="K60" s="4" t="n"/>
+      <c r="L60" s="4" t="n"/>
+      <c r="M60" s="3" t="n"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="3" t="n"/>
+      <c r="B61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>44775</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>44780</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G60" s="6">
-        <v>6258</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="6">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
+      <c r="G61" s="6" t="n">
+        <v>12500</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="5" t="n"/>
+      <c r="K61" s="4" t="n">
+        <v>44595</v>
+      </c>
+      <c r="L61" s="4" t="n"/>
+      <c r="M61" s="3" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="3" t="n"/>
+      <c r="B62" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="4">
-        <v>44760</v>
-      </c>
-      <c r="D61" s="4">
-        <v>44760</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="6"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="4">
-        <v>44775</v>
-      </c>
-      <c r="D62" s="4">
-        <v>44780</v>
-      </c>
-      <c r="E62" s="5">
-        <v>5</v>
+      <c r="C62" s="4" t="n">
+        <v>44781</v>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>44802</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>21</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="6">
-        <v>12500</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G62" s="6" t="n"/>
       <c r="H62" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="4">
-        <v>44595</v>
-      </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="6">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A63" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="J62" s="5" t="n"/>
+      <c r="K62" s="4" t="n"/>
+      <c r="L62" s="4" t="n"/>
+      <c r="M62" s="3" t="n"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="3" t="n"/>
       <c r="B63" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="4">
-        <v>44781</v>
-      </c>
-      <c r="D63" s="4">
-        <v>44802</v>
-      </c>
-      <c r="E63" s="5">
-        <v>21</v>
+      <c r="C63" s="4" t="n">
+        <v>44803</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>44803</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="G63" s="6" t="n"/>
       <c r="H63" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="6"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
+      <c r="J63" s="5" t="n"/>
+      <c r="K63" s="4" t="n"/>
+      <c r="L63" s="4" t="n"/>
+      <c r="M63" s="3" t="n"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="3" t="n"/>
       <c r="B64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="4" t="n">
+        <v>44806</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>44808</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>6954</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" s="5" t="n"/>
+      <c r="K64" s="4" t="n"/>
+      <c r="L64" s="4" t="n"/>
+      <c r="M64" s="3" t="n">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="3" t="n"/>
+      <c r="B65" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="4">
-        <v>44803</v>
-      </c>
-      <c r="D64" s="4">
-        <v>44803</v>
-      </c>
-      <c r="E64" s="5">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="5" t="s">
+      <c r="C65" s="4" t="n">
+        <v>44811</v>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>44811</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="6" t="n"/>
+      <c r="H65" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="6"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="4">
-        <v>44806</v>
-      </c>
-      <c r="D65" s="4">
-        <v>44808</v>
-      </c>
-      <c r="E65" s="5">
-        <v>3</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="6">
-        <v>6954</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="I65" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="6">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A66" s="3"/>
+      <c r="J65" s="5" t="n"/>
+      <c r="K65" s="4" t="n"/>
+      <c r="L65" s="4" t="n"/>
+      <c r="M65" s="3" t="n"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="3" t="n"/>
       <c r="B66" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="4">
-        <v>44811</v>
-      </c>
-      <c r="D66" s="4">
-        <v>44811</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1</v>
+      <c r="C66" s="4" t="n">
+        <v>44812</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>44816</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>4636</v>
+      </c>
       <c r="H66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" s="5" t="n"/>
+      <c r="K66" s="4" t="n"/>
+      <c r="L66" s="4" t="n"/>
+      <c r="M66" s="3" t="n">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="3" t="n"/>
+      <c r="B67" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>44817</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>44817</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="6" t="n"/>
+      <c r="H67" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="6"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="4">
-        <v>44812</v>
-      </c>
-      <c r="D67" s="4">
-        <v>44816</v>
-      </c>
-      <c r="E67" s="5">
-        <v>4</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G67" s="6">
-        <v>4636</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="I67" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="6">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A68" s="3"/>
+      <c r="J67" s="5" t="n"/>
+      <c r="K67" s="4" t="n"/>
+      <c r="L67" s="4" t="n"/>
+      <c r="M67" s="3" t="n"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="3" t="n"/>
       <c r="B68" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="4">
-        <v>44817</v>
-      </c>
-      <c r="D68" s="4">
-        <v>44817</v>
-      </c>
-      <c r="E68" s="5">
+      <c r="C68" s="4" t="n">
+        <v>44818</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <v>44818</v>
+      </c>
+      <c r="E68" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="6"/>
+      <c r="G68" s="6" t="n"/>
       <c r="H68" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="6"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
+      <c r="J68" s="5" t="n"/>
+      <c r="K68" s="4" t="n"/>
+      <c r="L68" s="4" t="n"/>
+      <c r="M68" s="3" t="n"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="3" t="n"/>
       <c r="B69" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="4">
-        <v>44818</v>
-      </c>
-      <c r="D69" s="4">
-        <v>44818</v>
-      </c>
-      <c r="E69" s="5">
-        <v>1</v>
+      <c r="C69" s="4" t="n">
+        <v>44819</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>44822</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G69" s="6" t="n">
+        <v>6954</v>
+      </c>
       <c r="H69" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J69" s="5"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="6"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A70" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="I69" s="5" t="n"/>
+      <c r="J69" s="5" t="n"/>
+      <c r="K69" s="4" t="n"/>
+      <c r="L69" s="4" t="n"/>
+      <c r="M69" s="3" t="n">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="3" t="n"/>
       <c r="B70" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="4">
-        <v>44819</v>
-      </c>
-      <c r="D70" s="4">
-        <v>44822</v>
-      </c>
-      <c r="E70" s="5">
-        <v>3</v>
+      <c r="C70" s="4" t="n">
+        <v>44823</v>
+      </c>
+      <c r="D70" s="4" t="n">
+        <v>44823</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="6">
-        <v>6954</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" s="6" t="n"/>
       <c r="H70" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="6">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" s="5" t="n"/>
+      <c r="K70" s="4" t="n"/>
+      <c r="L70" s="4" t="n"/>
+      <c r="M70" s="3" t="n"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="3" t="n"/>
       <c r="B71" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="4">
-        <v>44823</v>
-      </c>
-      <c r="D71" s="4">
-        <v>44823</v>
-      </c>
-      <c r="E71" s="5">
+      <c r="C71" s="4" t="n">
+        <v>44825</v>
+      </c>
+      <c r="D71" s="4" t="n">
+        <v>44825</v>
+      </c>
+      <c r="E71" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="6"/>
+      <c r="G71" s="6" t="n"/>
       <c r="H71" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="6"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
+      <c r="J71" s="5" t="n"/>
+      <c r="K71" s="4" t="n"/>
+      <c r="L71" s="4" t="n"/>
+      <c r="M71" s="3" t="n"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="3" t="n"/>
       <c r="B72" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="4">
-        <v>44825</v>
-      </c>
-      <c r="D72" s="4">
-        <v>44825</v>
-      </c>
-      <c r="E72" s="5">
-        <v>1</v>
+      <c r="C72" s="4" t="n">
+        <v>44826</v>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>44829</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>6954</v>
+      </c>
       <c r="H72" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J72" s="5"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="6"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A73" s="3"/>
+      <c r="J72" s="5" t="n"/>
+      <c r="K72" s="4" t="n"/>
+      <c r="L72" s="4" t="n"/>
+      <c r="M72" s="3" t="n">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="3" t="n"/>
       <c r="B73" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="4">
-        <v>44826</v>
-      </c>
-      <c r="D73" s="4">
-        <v>44829</v>
-      </c>
-      <c r="E73" s="5">
-        <v>3</v>
+      <c r="C73" s="4" t="n">
+        <v>44830</v>
+      </c>
+      <c r="D73" s="4" t="n">
+        <v>44830</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="6">
-        <v>6954</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" s="6" t="n"/>
       <c r="H73" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="6">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A74" s="3"/>
+      <c r="J73" s="5" t="n"/>
+      <c r="K73" s="4" t="n"/>
+      <c r="L73" s="4" t="n"/>
+      <c r="M73" s="3" t="n"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="3" t="n"/>
       <c r="B74" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="4">
-        <v>44830</v>
-      </c>
-      <c r="D74" s="4">
-        <v>44830</v>
-      </c>
-      <c r="E74" s="5">
+      <c r="C74" s="4" t="n">
+        <v>44831</v>
+      </c>
+      <c r="D74" s="4" t="n">
+        <v>44831</v>
+      </c>
+      <c r="E74" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="6"/>
+      <c r="G74" s="6" t="n"/>
       <c r="H74" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="6"/>
-    </row>
-    <row r="75" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7" t="s">
+      <c r="J74" s="5" t="n"/>
+      <c r="K74" s="4" t="n"/>
+      <c r="L74" s="4" t="n"/>
+      <c r="M74" s="3" t="n"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="3" t="n"/>
+      <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="8">
-        <v>44831</v>
-      </c>
-      <c r="D75" s="8">
-        <v>44831</v>
-      </c>
-      <c r="E75" s="9">
-        <v>1</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="10">
-        <v>6954</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="10">
-        <v>6954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A76" s="3"/>
+      <c r="C75" s="4" t="n">
+        <v>44832</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>44836</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="6" t="n">
+        <v>9380.34</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" s="5" t="n"/>
+      <c r="K75" s="4" t="n"/>
+      <c r="L75" s="4" t="n"/>
+      <c r="M75" s="3" t="n">
+        <v>2345.08</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="3" t="n"/>
       <c r="B76" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="4">
-        <v>44832</v>
-      </c>
-      <c r="D76" s="4">
-        <v>44836</v>
-      </c>
-      <c r="E76" s="5">
-        <v>4</v>
+      <c r="C76" s="4" t="n">
+        <v>44837</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>44837</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="6">
-        <v>9380.34</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" s="6" t="n"/>
       <c r="H76" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="6">
-        <v>2345.08</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A77" s="3"/>
+      <c r="J76" s="5" t="n"/>
+      <c r="K76" s="4" t="n"/>
+      <c r="L76" s="4" t="n"/>
+      <c r="M76" s="3" t="n"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="3" t="n"/>
       <c r="B77" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="4">
-        <v>44837</v>
-      </c>
-      <c r="D77" s="4">
-        <v>44837</v>
-      </c>
-      <c r="E77" s="5">
+      <c r="C77" s="4" t="n">
+        <v>44839</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>44839</v>
+      </c>
+      <c r="E77" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="6"/>
+      <c r="G77" s="6" t="n"/>
       <c r="H77" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="6"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A78" s="3"/>
+      <c r="J77" s="5" t="n"/>
+      <c r="K77" s="4" t="n"/>
+      <c r="L77" s="4" t="n"/>
+      <c r="M77" s="3" t="n"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="3" t="n"/>
       <c r="B78" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="4">
-        <v>44839</v>
-      </c>
-      <c r="D78" s="4">
-        <v>44839</v>
-      </c>
-      <c r="E78" s="5">
-        <v>1</v>
+      <c r="C78" s="4" t="n">
+        <v>44840</v>
+      </c>
+      <c r="D78" s="4" t="n">
+        <v>44843</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G78" s="6" t="n">
+        <v>6954</v>
+      </c>
       <c r="H78" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J78" s="5"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="6"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
+      <c r="J78" s="5" t="n"/>
+      <c r="K78" s="4" t="n"/>
+      <c r="L78" s="4" t="n"/>
+      <c r="M78" s="3" t="n">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="3" t="n"/>
       <c r="B79" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="4">
-        <v>44840</v>
-      </c>
-      <c r="D79" s="4">
-        <v>44843</v>
-      </c>
-      <c r="E79" s="5">
-        <v>3</v>
+      <c r="C79" s="4" t="n">
+        <v>44844</v>
+      </c>
+      <c r="D79" s="4" t="n">
+        <v>44844</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" s="6">
-        <v>6954</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G79" s="6" t="n"/>
       <c r="H79" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J79" s="5"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="6">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A80" s="3"/>
+      <c r="J79" s="5" t="n"/>
+      <c r="K79" s="4" t="n"/>
+      <c r="L79" s="4" t="n"/>
+      <c r="M79" s="3" t="n"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="3" t="n"/>
       <c r="B80" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="4">
-        <v>44844</v>
-      </c>
-      <c r="D80" s="4">
-        <v>44844</v>
-      </c>
-      <c r="E80" s="5">
+      <c r="C80" s="4" t="n">
+        <v>44845</v>
+      </c>
+      <c r="D80" s="4" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E80" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="6"/>
+      <c r="G80" s="6" t="n"/>
       <c r="H80" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="6"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A81" s="3"/>
+      <c r="J80" s="5" t="n"/>
+      <c r="K80" s="4" t="n"/>
+      <c r="L80" s="4" t="n"/>
+      <c r="M80" s="3" t="n"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="3" t="n"/>
       <c r="B81" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="4">
-        <v>44845</v>
-      </c>
-      <c r="D81" s="4">
-        <v>44845</v>
-      </c>
-      <c r="E81" s="5">
-        <v>1</v>
+      <c r="C81" s="4" t="n">
+        <v>44846</v>
+      </c>
+      <c r="D81" s="4" t="n">
+        <v>44850</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>5</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="G81" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="H81" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" s="5" t="n"/>
+      <c r="K81" s="4" t="n"/>
+      <c r="L81" s="4" t="n"/>
+      <c r="M81" s="3" t="n"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="3" t="n"/>
+      <c r="B82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="4" t="n">
+        <v>44853</v>
+      </c>
+      <c r="D82" s="4" t="n">
+        <v>44853</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="6" t="n"/>
+      <c r="H82" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I81" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="6"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="4">
-        <v>44846</v>
-      </c>
-      <c r="D82" s="4">
-        <v>44850</v>
-      </c>
-      <c r="E82" s="5">
-        <v>5</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" s="6">
-        <v>0</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="I82" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="6"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A83" s="3"/>
+      <c r="J82" s="5" t="n"/>
+      <c r="K82" s="4" t="n"/>
+      <c r="L82" s="4" t="n"/>
+      <c r="M82" s="3" t="n"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="3" t="n"/>
       <c r="B83" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="4" t="n">
+        <v>44854</v>
+      </c>
+      <c r="D83" s="4" t="n">
         <v>44857</v>
       </c>
-      <c r="D83" s="4">
-        <v>44857</v>
-      </c>
-      <c r="E83" s="5">
-        <v>1</v>
+      <c r="E83" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G83" s="6" t="n">
+        <v>6954</v>
+      </c>
       <c r="H83" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="6"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A84" s="3"/>
+      <c r="J83" s="5" t="n"/>
+      <c r="K83" s="4" t="n"/>
+      <c r="L83" s="4" t="n"/>
+      <c r="M83" s="3" t="n">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="3" t="n"/>
       <c r="B84" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="4" t="n">
+        <v>44857</v>
+      </c>
+      <c r="D84" s="4" t="n">
+        <v>44857</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="6" t="n"/>
+      <c r="H84" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" s="5" t="n"/>
+      <c r="K84" s="4" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="3" t="n"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="3" t="n"/>
+      <c r="B85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="4" t="n">
         <v>44858</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D85" s="4" t="n">
         <v>44863</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="6" t="n">
         <v>11590</v>
       </c>
-      <c r="H84" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J84" s="5"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="6">
+      <c r="H85" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" s="5" t="n"/>
+      <c r="K85" s="4" t="n"/>
+      <c r="L85" s="4" t="n"/>
+      <c r="M85" s="3" t="n">
         <v>2318</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C85" s="4">
-        <v>44864</v>
-      </c>
-      <c r="D85" s="4">
-        <v>44864</v>
-      </c>
-      <c r="E85" s="5">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J85" s="5"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="6"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A86" s="3"/>
+    <row r="86" spans="1:13">
+      <c r="A86" s="3" t="n"/>
       <c r="B86" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="4">
-        <v>44868</v>
-      </c>
-      <c r="D86" s="4">
-        <v>44868</v>
-      </c>
-      <c r="E86" s="5">
+      <c r="C86" s="4" t="n">
+        <v>44864</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>44864</v>
+      </c>
+      <c r="E86" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="6"/>
+      <c r="G86" s="6" t="n"/>
       <c r="H86" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J86" s="5"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="6"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A87" s="3"/>
+      <c r="J86" s="5" t="n"/>
+      <c r="K86" s="4" t="n"/>
+      <c r="L86" s="4" t="n"/>
+      <c r="M86" s="3" t="n"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="3" t="n"/>
       <c r="B87" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="4">
-        <v>44869</v>
-      </c>
-      <c r="D87" s="4">
-        <v>44873</v>
-      </c>
-      <c r="E87" s="5">
-        <v>4</v>
+      <c r="C87" s="4" t="n">
+        <v>44868</v>
+      </c>
+      <c r="D87" s="4" t="n">
+        <v>44868</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" s="6">
-        <v>7940</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G87" s="6" t="n"/>
       <c r="H87" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J87" s="5"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="6">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A88" s="3"/>
+      <c r="J87" s="5" t="n"/>
+      <c r="K87" s="4" t="n"/>
+      <c r="L87" s="4" t="n"/>
+      <c r="M87" s="3" t="n"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="3" t="n"/>
       <c r="B88" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C88" s="4">
-        <v>44874</v>
-      </c>
-      <c r="D88" s="4">
-        <v>44874</v>
-      </c>
-      <c r="E88" s="5">
-        <v>1</v>
+      <c r="C88" s="4" t="n">
+        <v>44869</v>
+      </c>
+      <c r="D88" s="4" t="n">
+        <v>44873</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G88" s="6" t="n">
+        <v>7940</v>
+      </c>
       <c r="H88" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J88" s="5"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="6"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A89" s="3"/>
+      <c r="J88" s="5" t="n"/>
+      <c r="K88" s="4" t="n"/>
+      <c r="L88" s="4" t="n"/>
+      <c r="M88" s="3" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="3" t="n"/>
       <c r="B89" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="4">
-        <v>44887</v>
-      </c>
-      <c r="D89" s="4">
-        <v>44887</v>
-      </c>
-      <c r="E89" s="5">
+      <c r="C89" s="4" t="n">
+        <v>44874</v>
+      </c>
+      <c r="D89" s="4" t="n">
+        <v>44874</v>
+      </c>
+      <c r="E89" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="6"/>
+      <c r="G89" s="6" t="n"/>
       <c r="H89" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J89" s="5"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="6"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A90" s="3"/>
+      <c r="J89" s="5" t="n"/>
+      <c r="K89" s="4" t="n"/>
+      <c r="L89" s="4" t="n"/>
+      <c r="M89" s="3" t="n"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="3" t="n"/>
       <c r="B90" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="4">
-        <v>44888</v>
-      </c>
-      <c r="D90" s="4">
-        <v>44892</v>
-      </c>
-      <c r="E90" s="5">
+      <c r="C90" s="4" t="n">
+        <v>44874</v>
+      </c>
+      <c r="D90" s="4" t="n">
+        <v>44878</v>
+      </c>
+      <c r="E90" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G90" s="6">
-        <v>7971</v>
+      <c r="G90" s="6" t="n">
+        <v>7940</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J90" s="5"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="6">
-        <v>1992.75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A91" s="3"/>
+      <c r="J90" s="5" t="n"/>
+      <c r="K90" s="4" t="n"/>
+      <c r="L90" s="4" t="n"/>
+      <c r="M90" s="3" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="3" t="n"/>
       <c r="B91" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C91" s="4">
-        <v>44893</v>
-      </c>
-      <c r="D91" s="4">
-        <v>44893</v>
-      </c>
-      <c r="E91" s="5">
+        <v>122</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>44879</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>44879</v>
+      </c>
+      <c r="E91" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G91" s="6"/>
+      <c r="G91" s="6" t="n"/>
       <c r="H91" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J91" s="5"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="6"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A92" s="3"/>
+      <c r="J91" s="5" t="n"/>
+      <c r="K91" s="4" t="n"/>
+      <c r="L91" s="4" t="n"/>
+      <c r="M91" s="3" t="n"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="3" t="n"/>
       <c r="B92" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="4">
+        <v>123</v>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>44887</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <v>44887</v>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="6" t="n"/>
+      <c r="H92" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J92" s="5" t="n"/>
+      <c r="K92" s="4" t="n"/>
+      <c r="L92" s="4" t="n"/>
+      <c r="M92" s="3" t="n"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="3" t="n"/>
+      <c r="B93" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>44888</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <v>44892</v>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="6" t="n">
+        <v>7971</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J93" s="5" t="n"/>
+      <c r="K93" s="4" t="n"/>
+      <c r="L93" s="4" t="n"/>
+      <c r="M93" s="3" t="n">
+        <v>1992.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="3" t="n"/>
+      <c r="B94" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>44893</v>
+      </c>
+      <c r="D94" s="4" t="n">
+        <v>44893</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="6" t="n"/>
+      <c r="H94" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94" s="5" t="n"/>
+      <c r="K94" s="4" t="n"/>
+      <c r="L94" s="4" t="n"/>
+      <c r="M94" s="3" t="n"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="3" t="n"/>
+      <c r="B95" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="4" t="n">
         <v>44919</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D95" s="4" t="n">
         <v>44930</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G92" s="10"/>
-      <c r="H92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J92" s="5"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="6"/>
+      <c r="E95" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G95" s="6" t="n"/>
+      <c r="H95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="5" t="n"/>
+      <c r="K95" s="4" t="n"/>
+      <c r="L95" s="4" t="n"/>
+      <c r="M95" s="3" t="n"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="3" t="n"/>
+      <c r="B96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D96" s="4" t="n">
+        <v>44973</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="6" t="n"/>
+      <c r="H96" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" s="5" t="n"/>
+      <c r="K96" s="4" t="n"/>
+      <c r="L96" s="4" t="n"/>
+      <c r="M96" s="3" t="n"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="4" t="n">
+        <v>44974</v>
+      </c>
+      <c r="D97" s="4" t="n">
+        <v>44977</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="6" t="n">
+        <v>5874</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J97" s="5" t="n"/>
+      <c r="K97" s="4" t="n"/>
+      <c r="L97" s="4" t="n"/>
+      <c r="M97" s="3" t="n">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="3" t="n"/>
+      <c r="B98" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="4" t="n">
+        <v>44978</v>
+      </c>
+      <c r="D98" s="4" t="n">
+        <v>44978</v>
+      </c>
+      <c r="E98" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="6" t="n"/>
+      <c r="H98" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J98" s="5" t="n"/>
+      <c r="K98" s="4" t="n"/>
+      <c r="L98" s="4" t="n"/>
+      <c r="M98" s="3" t="n"/>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="3" t="n"/>
+      <c r="B99" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>45049</v>
+      </c>
+      <c r="D99" s="4" t="n">
+        <v>45049</v>
+      </c>
+      <c r="E99" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="6" t="n"/>
+      <c r="H99" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99" s="5" t="n"/>
+      <c r="K99" s="4" t="n"/>
+      <c r="L99" s="4" t="n"/>
+      <c r="M99" s="3" t="n"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="3" t="n"/>
+      <c r="B100" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>45050</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>45428</v>
+      </c>
+      <c r="E100" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G100" s="6" t="n">
+        <v>27816</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" s="5" t="n"/>
+      <c r="K100" s="4" t="n"/>
+      <c r="L100" s="4" t="n"/>
+      <c r="M100" s="3" t="n">
+        <v>2318</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3635,23 +3886,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3689,24 +3951,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="4">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>44806</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44808</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3" t="n">
         <v>6954</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -3715,240 +3977,240 @@
       <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3">
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n">
         <v>2318</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="4">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>44811</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44811</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>44812</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>44816</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="4">
-        <v>44812</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44816</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="n">
+        <v>4636</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="3">
-        <v>4636</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>44817</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>44817</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="4">
+        <v>96</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>44818</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>44818</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="4">
+        <v>97</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>44819</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>44822</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="n">
         <v>6954</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3">
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="3" t="n">
         <v>2318</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="4">
+        <v>98</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>44823</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>44823</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="4">
+        <v>99</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>44825</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>44825</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="3" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>44826</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>44829</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="n">
         <v>6954</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -3957,93 +4219,89 @@
       <c r="I10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3">
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="3" t="n">
         <v>2318</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="n"/>
       <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="4">
+        <v>101</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>44830</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>44830</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="3" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="n"/>
       <c r="B12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="4">
+        <v>102</v>
+      </c>
+      <c r="C12" s="4" t="n">
         <v>44831</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>44831</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3">
-        <v>6954</v>
-      </c>
+      <c r="G12" s="3" t="n"/>
       <c r="H12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3">
-        <v>6954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="4" t="n"/>
+      <c r="M12" s="3" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="n"/>
       <c r="B13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="4">
+        <v>103</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>44832</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>44836</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="3" t="n">
         <v>9380.34</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -4052,10 +4310,10 @@
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3">
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="4" t="n"/>
+      <c r="L13" s="4" t="n"/>
+      <c r="M13" s="3" t="n">
         <v>2345.08</v>
       </c>
     </row>
@@ -4065,23 +4323,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4119,82 +4388,82 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="4">
+        <v>104</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>44837</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44837</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="4">
+        <v>105</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>44839</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44839</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="4">
+        <v>106</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>44840</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>44843</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>6954</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -4203,192 +4472,254 @@
       <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3">
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n">
         <v>2318</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="4">
+        <v>107</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>44844</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>44844</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="4">
+        <v>108</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>44845</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>44845</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="4">
+        <v>109</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>44846</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>44850</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44857</v>
-      </c>
-      <c r="D8" s="4">
-        <v>44857</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="4" t="n">
+        <v>44853</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>44853</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44858</v>
-      </c>
-      <c r="D9" s="4">
-        <v>44863</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5</v>
+        <v>112</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>44854</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>44857</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3">
-        <v>11590</v>
+      <c r="G9" s="3" t="n">
+        <v>6954</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3">
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="3" t="n">
         <v>2318</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44864</v>
-      </c>
-      <c r="D10" s="4">
-        <v>44864</v>
-      </c>
-      <c r="E10" s="5">
+        <v>113</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>44857</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>44857</v>
+      </c>
+      <c r="E10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="n"/>
       <c r="H10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="3" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>44858</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>44863</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>11590</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="3" t="n">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>44864</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>44864</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="4" t="n"/>
+      <c r="M12" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4396,23 +4727,34 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4450,53 +4792,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="4">
+        <v>117</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>44868</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44868</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="4">
+        <v>118</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>44869</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44873</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>7940</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -4505,132 +4847,194 @@
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n">
         <v>1985</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="4">
+        <v>119</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>44874</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>44874</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="n"/>
       <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="4">
+        <v>120</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>44874</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>44878</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>7940</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>44879</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>44879</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>44887</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D7" s="4" t="n">
         <v>44887</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44888</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44892</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3">
-        <v>7971</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3">
-        <v>1992.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44893</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44893</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>44888</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>44892</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>7971</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="3" t="n">
+        <v>1992.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>44893</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>44893</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4638,23 +5042,34 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4692,34 +5107,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4">
+        <v>126</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>44919</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44930</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4727,23 +5142,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4781,15 +5207,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="n">
         <v>44574</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44574</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -4798,27 +5224,27 @@
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="n">
         <v>44575</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44577</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -4827,7 +5253,7 @@
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>5700</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -4836,22 +5262,22 @@
       <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n">
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="n">
         <v>44578</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>44578</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -4860,27 +5286,27 @@
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="n"/>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>44580</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>44580</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -4889,27 +5315,27 @@
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>44581</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>44583</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -4918,7 +5344,7 @@
       <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>5700</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -4927,22 +5353,22 @@
       <c r="I6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3">
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="3" t="n">
         <v>1900</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="n">
         <v>44584</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>44584</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -4951,46 +5377,46 @@
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>44588</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>44589</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4998,23 +5424,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5052,15 +5489,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="n">
         <v>44603</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44606</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -5069,36 +5506,36 @@
       <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="n">
         <v>44609</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44609</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="5" t="s">
         <v>30</v>
       </c>
@@ -5108,28 +5545,28 @@
       <c r="J3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="n">
         <v>44610</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>5881</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -5141,30 +5578,30 @@
       <c r="J4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3">
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n">
         <v>1960.33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>44614</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>44614</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="5" t="s">
         <v>25</v>
       </c>
@@ -5174,57 +5611,57 @@
       <c r="J5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>44615</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>44615</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="n">
         <v>44616</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>44619</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="n">
         <v>5006</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -5233,33 +5670,33 @@
       <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4">
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3">
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="3" t="n">
         <v>1668.66</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>44620</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>44620</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="5" t="s">
         <v>30</v>
       </c>
@@ -5269,9 +5706,100 @@
       <c r="J8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>44973</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="3" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>44974</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>44977</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>5874</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="3" t="n">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>44978</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>44978</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5279,23 +5807,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5333,15 +5872,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="n">
         <v>44623</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44623</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -5350,27 +5889,27 @@
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="n">
         <v>44624</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44626</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -5379,7 +5918,7 @@
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>5700</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -5388,22 +5927,22 @@
       <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n">
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="n">
         <v>44627</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>44627</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -5412,36 +5951,36 @@
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="n"/>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>44630</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>44633</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>5175</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -5450,89 +5989,89 @@
       <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3">
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n">
         <v>1725</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>44634</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>44634</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="n">
         <v>44636</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>44636</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>44637</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>44640</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="n">
         <v>4832</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -5541,89 +6080,89 @@
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3">
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="3" t="n">
         <v>1610.66</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="n">
         <v>44641</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>44641</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="3" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>44644</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>44644</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="n"/>
       <c r="H10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="3" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="n"/>
       <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>44645</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>44647</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="3" t="n">
         <v>3405</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -5632,99 +6171,99 @@
       <c r="I11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3">
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="3" t="n">
         <v>1702.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="n"/>
       <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="n">
         <v>44647</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>44649</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="n"/>
       <c r="H12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="4" t="n"/>
+      <c r="M12" s="3" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="n"/>
       <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="n">
         <v>44650</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>44650</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="n"/>
       <c r="H13" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="4" t="n"/>
+      <c r="L13" s="4" t="n"/>
+      <c r="M13" s="3" t="n"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="n"/>
       <c r="B14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="n">
         <v>44651</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>44651</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="n"/>
       <c r="H14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3"/>
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="4" t="n"/>
+      <c r="L14" s="4" t="n"/>
+      <c r="M14" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5732,23 +6271,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5786,24 +6336,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="n">
         <v>44652</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44654</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3" t="n">
         <v>2893.59</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -5812,51 +6362,51 @@
       <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3">
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n">
         <v>1446.79</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44655</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="n">
         <v>44659</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>44659</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -5865,27 +6415,27 @@
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="n"/>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>44660</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>44664</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -5894,7 +6444,7 @@
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>9875</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -5903,56 +6453,56 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3">
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n">
         <v>1975</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>44665</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>44668</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
+        <v>5286</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="3" t="n">
         <v>1762</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3">
-        <v>587.33000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="4">
-        <v>44665</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44665</v>
+      <c r="C7" s="4" t="n">
+        <v>44669</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>44669</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
@@ -5960,90 +6510,90 @@
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="4">
-        <v>44669</v>
-      </c>
-      <c r="D8" s="4">
-        <v>44669</v>
+      <c r="C8" s="4" t="n">
+        <v>44670</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>44674</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>9875</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="3" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="4">
-        <v>44670</v>
-      </c>
-      <c r="D9" s="4">
-        <v>44674</v>
+      <c r="C9" s="4" t="n">
+        <v>44675</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>44675</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9875</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="3" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4">
-        <v>44675</v>
-      </c>
-      <c r="D10" s="4">
-        <v>44675</v>
+      <c r="C10" s="4" t="n">
+        <v>44677</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>44677</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>13</v>
@@ -6051,77 +6601,48 @@
       <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="n"/>
       <c r="H10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="3" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="n"/>
       <c r="B11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="4">
-        <v>44677</v>
-      </c>
-      <c r="D11" s="4">
-        <v>44677</v>
+      <c r="C11" s="4" t="n">
+        <v>44678</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>44684</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>13825</v>
+      </c>
       <c r="H11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44678</v>
-      </c>
-      <c r="D12" s="4">
-        <v>44684</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="3">
-        <v>13825</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3">
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="3" t="n">
         <v>1975</v>
       </c>
     </row>
@@ -6131,23 +6652,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6185,15 +6717,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="4">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>44685</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44685</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -6202,36 +6734,36 @@
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="4">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>44686</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44689</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>5615</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -6240,51 +6772,51 @@
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n">
         <v>1871.66</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="4">
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>44690</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>44690</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="n"/>
       <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="4">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>44691</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>44691</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -6293,27 +6825,27 @@
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="4">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>44692</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>44695</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -6322,7 +6854,7 @@
       <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>7900</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -6331,22 +6863,22 @@
       <c r="I6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3">
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="3" t="n">
         <v>1975</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="4">
+        <v>70</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>44696</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>44696</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -6355,65 +6887,65 @@
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="4">
+        <v>71</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>44699</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>44699</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="4">
+        <v>72</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>44700</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>44705</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="n">
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="n">
         <v>11678.8</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -6422,60 +6954,60 @@
       <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3">
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="3" t="n">
         <v>2335.75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>44706</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>44706</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="3" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="4">
-        <v>44706</v>
-      </c>
-      <c r="D10" s="4">
-        <v>44706</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>44707</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>44712</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="3" t="n">
         <v>5881</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -6484,11 +7016,73 @@
       <c r="I11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3">
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="M11" s="3" t="n">
         <v>1960.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>45049</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>45049</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="4" t="n"/>
+      <c r="M12" s="3" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>45050</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>45428</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>27816</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="4" t="n"/>
+      <c r="L13" s="4" t="n"/>
+      <c r="M13" s="3" t="n">
+        <v>2318</v>
       </c>
     </row>
   </sheetData>
@@ -6497,23 +7091,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6551,53 +7156,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>44713</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="4">
-        <v>44713</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44713</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="n">
         <v>44714</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44719</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>11590</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -6606,89 +7211,89 @@
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n">
         <v>2318</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="4">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>44720</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>44720</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="n"/>
       <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="4">
+        <v>78</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>44722</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>44722</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="4">
+        <v>79</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>44723</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>44729</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>11490</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -6697,102 +7302,102 @@
       <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3">
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="3" t="n">
         <v>1915</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="4">
+        <v>80</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>44730</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>44730</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="4">
+        <v>81</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>44735</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>44735</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="4">
+        <v>82</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>44736</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>44751</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="n">
         <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="n">
         <v>19958</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3">
-        <v>1247.3699999999999</v>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="3" t="n">
+        <v>1247.37</v>
       </c>
     </row>
   </sheetData>
@@ -6801,23 +7406,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6855,125 +7471,125 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="4">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>44752</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44752</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="4">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>44755</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44755</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="4">
+        <v>86</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>44756</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>44759</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>6258</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>44760</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>44760</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6981,23 +7597,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,24 +7662,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="4">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>44775</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>44780</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3" t="n">
         <v>12500</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -7061,72 +7688,72 @@
       <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4">
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n">
         <v>44595</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3">
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="3" t="n">
         <v>2500</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="4">
+        <v>89</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>44781</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>44802</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="4">
+        <v>90</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>44803</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>44803</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="n"/>
       <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Attune_Estate_2022_Bookings.xlsx
+++ b/Attune_Estate_2022_Bookings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ken\Dropbox\LinuxShare\python\ecobee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E699D-85D9-4B06-B77F-36411AA1D5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB3020-FE17-4011-9383-8A5164DB7C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listing" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="160">
   <si>
     <t>Booking</t>
   </si>
@@ -55,15 +55,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Managing</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
-    <t>BookedOn</t>
-  </si>
-  <si>
     <t>HoldUntil</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>Marthas Cleaning</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>MLS-00010</t>
   </si>
   <si>
@@ -412,13 +400,34 @@
     <t>CLN-00340</t>
   </si>
   <si>
-    <t>HLD-22617</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Hold - Other</t>
+    <t>MLS-00330</t>
+  </si>
+  <si>
+    <t>CLN-00620</t>
+  </si>
+  <si>
+    <t>CLN-00630</t>
+  </si>
+  <si>
+    <t>MLS-00340</t>
+  </si>
+  <si>
+    <t>CLN-00640</t>
+  </si>
+  <si>
+    <t>CLN-00650</t>
+  </si>
+  <si>
+    <t>MLS-00350</t>
+  </si>
+  <si>
+    <t>CLN-00660</t>
+  </si>
+  <si>
+    <t>CLN-00670</t>
+  </si>
+  <si>
+    <t>OWN-00040</t>
   </si>
   <si>
     <t>CLN-00370</t>
@@ -430,6 +439,36 @@
     <t>CLN-00380</t>
   </si>
   <si>
+    <t>MLS-00360</t>
+  </si>
+  <si>
+    <t>CLN-00680</t>
+  </si>
+  <si>
+    <t>CLN-00690</t>
+  </si>
+  <si>
+    <t>MLS-00370</t>
+  </si>
+  <si>
+    <t>CLN-00700</t>
+  </si>
+  <si>
+    <t>CLN-00710</t>
+  </si>
+  <si>
+    <t>MLS-00380</t>
+  </si>
+  <si>
+    <t>Res- Renter</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>CLN-00720</t>
+  </si>
+  <si>
     <t>CLN-00390</t>
   </si>
   <si>
@@ -442,6 +481,9 @@
     <t>CLN-00600</t>
   </si>
   <si>
+    <t>MLS-00390</t>
+  </si>
+  <si>
     <t>CLN-00540</t>
   </si>
   <si>
@@ -449,6 +491,27 @@
   </si>
   <si>
     <t>CLN-00610</t>
+  </si>
+  <si>
+    <t>CLN-00730</t>
+  </si>
+  <si>
+    <t>MLS-00400</t>
+  </si>
+  <si>
+    <t>Hold-Renter</t>
+  </si>
+  <si>
+    <t>CLN-00740</t>
+  </si>
+  <si>
+    <t>CLN-00750</t>
+  </si>
+  <si>
+    <t>OWN-00050</t>
+  </si>
+  <si>
+    <t>CLN-00760</t>
   </si>
 </sst>
 </file>
@@ -476,12 +539,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -496,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -516,6 +585,19 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -831,11 +913,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -858,26 +939,17 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>44574</v>
@@ -889,24 +961,19 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>44575</v>
@@ -915,31 +982,26 @@
         <v>44578</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6">
         <v>5700</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6">
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4">
         <v>44580</v>
@@ -951,24 +1013,19 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
         <v>44581</v>
@@ -977,31 +1034,26 @@
         <v>44584</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6">
         <v>5700</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6">
         <v>1900</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>44584</v>
@@ -1013,24 +1065,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>44588</v>
@@ -1042,24 +1089,19 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>44603</v>
@@ -1068,27 +1110,22 @@
         <v>44607</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4">
         <v>44609</v>
@@ -1100,26 +1137,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4">
         <v>44610</v>
@@ -1131,30 +1161,23 @@
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" s="6">
         <v>5881</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3">
+        <v>27</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6">
         <v>1960.33</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4">
         <v>44615</v>
@@ -1166,24 +1189,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4">
         <v>44616</v>
@@ -1195,30 +1213,23 @@
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" s="6">
         <v>5006</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4">
-        <v>44613</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3">
+        <v>20</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6">
         <v>1668.66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4">
         <v>44623</v>
@@ -1227,27 +1238,22 @@
         <v>44624</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4">
         <v>44624</v>
@@ -1256,31 +1262,26 @@
         <v>44627</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14" s="6">
         <v>5700</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3">
+        <v>11</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6">
         <v>1900</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4">
         <v>44627</v>
@@ -1289,27 +1290,22 @@
         <v>44628</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4">
         <v>44630</v>
@@ -1321,28 +1317,23 @@
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G16" s="6">
         <v>5175</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="3">
+        <v>36</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="6">
         <v>1725</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4">
         <v>44636</v>
@@ -1354,24 +1345,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4">
         <v>44637</v>
@@ -1383,28 +1369,23 @@
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G18" s="6">
         <v>4832</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3">
+        <v>36</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6">
         <v>1610.66</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="4">
         <v>44644</v>
@@ -1416,24 +1397,19 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4">
         <v>44645</v>
@@ -1445,28 +1421,23 @@
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G20" s="6">
         <v>3405</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="3">
+        <v>27</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="6">
         <v>1702.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4">
         <v>44647</v>
@@ -1478,24 +1449,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4">
         <v>44647</v>
@@ -1507,24 +1473,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4">
         <v>44650</v>
@@ -1536,24 +1497,19 @@
         <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4">
         <v>44651</v>
@@ -1565,24 +1521,19 @@
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4">
         <v>44652</v>
@@ -1594,28 +1545,23 @@
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G25" s="6">
         <v>2893.59</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="3">
+        <v>27</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="6">
         <v>1446.79</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C26" s="4">
         <v>44655</v>
@@ -1627,24 +1573,19 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" s="4">
         <v>44660</v>
@@ -1653,31 +1594,26 @@
         <v>44665</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G27" s="6">
         <v>9875</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="3">
+        <v>11</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="6">
         <v>1975</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4">
         <v>44665</v>
@@ -1689,24 +1625,19 @@
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4">
         <v>44665</v>
@@ -1718,28 +1649,23 @@
         <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G29" s="6">
         <v>5286</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="3">
+        <v>20</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="6">
         <v>1762</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C30" s="4">
         <v>44669</v>
@@ -1748,27 +1674,22 @@
         <v>44670</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" s="4">
         <v>44670</v>
@@ -1777,31 +1698,26 @@
         <v>44675</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G31" s="6">
         <v>9875</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="3">
+        <v>11</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="6">
         <v>1975</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C32" s="4">
         <v>44677</v>
@@ -1810,27 +1726,22 @@
         <v>44678</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4">
         <v>44678</v>
@@ -1839,31 +1750,26 @@
         <v>44685</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G33" s="6">
         <v>13825</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="3">
+        <v>11</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="6">
         <v>1975</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4">
         <v>44685</v>
@@ -1872,27 +1778,22 @@
         <v>44686</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" s="4">
         <v>44686</v>
@@ -1904,28 +1805,23 @@
         <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G35" s="6">
         <v>5615</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="3">
+        <v>36</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="6">
         <v>1871.66</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C36" s="4">
         <v>44691</v>
@@ -1934,27 +1830,22 @@
         <v>44692</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C37" s="4">
         <v>44692</v>
@@ -1963,31 +1854,26 @@
         <v>44696</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G37" s="6">
         <v>7900</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="3">
+        <v>11</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="6">
         <v>1975</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C38" s="4">
         <v>44699</v>
@@ -1999,24 +1885,19 @@
         <v>1</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C39" s="4">
         <v>44700</v>
@@ -2028,28 +1909,23 @@
         <v>5</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G39" s="6">
         <v>11678.8</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="3">
+        <v>27</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="6">
         <v>2335.75</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C40" s="4">
         <v>44706</v>
@@ -2061,24 +1937,19 @@
         <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C41" s="4">
         <v>44707</v>
@@ -2090,28 +1961,23 @@
         <v>3</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G41" s="6">
         <v>5881</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="3">
+        <v>27</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="6">
         <v>1960.33</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C42" s="4">
         <v>44713</v>
@@ -2123,24 +1989,19 @@
         <v>1</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C43" s="4">
         <v>44714</v>
@@ -2152,28 +2013,23 @@
         <v>5</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G43" s="6">
         <v>11590</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="3">
+        <v>27</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="6">
         <v>2318</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C44" s="4">
         <v>44720</v>
@@ -2185,24 +2041,19 @@
         <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C45" s="4">
         <v>44723</v>
@@ -2214,28 +2065,23 @@
         <v>6</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G45" s="6">
         <v>11490</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="3">
+        <v>27</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="6">
         <v>1915</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C46" s="4">
         <v>44729</v>
@@ -2247,24 +2093,19 @@
         <v>1</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C47" s="4">
         <v>44730</v>
@@ -2276,28 +2117,23 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G47" s="6">
         <v>6116</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="3">
+        <v>27</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="6">
         <v>1529</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C48" s="4">
         <v>44734</v>
@@ -2309,24 +2145,19 @@
         <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C49" s="4">
         <v>44734</v>
@@ -2338,28 +2169,23 @@
         <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G49" s="6">
         <v>2832</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="3">
+        <v>27</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="6">
         <v>1416</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C50" s="4">
         <v>44736</v>
@@ -2371,24 +2197,19 @@
         <v>0</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C51" s="4">
         <v>44736</v>
@@ -2400,28 +2221,23 @@
         <v>15</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G51" s="6">
         <v>19958</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="3">
+        <v>75</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="6">
         <v>1330.53</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C52" s="4">
         <v>44752</v>
@@ -2433,24 +2249,19 @@
         <v>1</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C53" s="4">
         <v>44756</v>
@@ -2462,28 +2273,23 @@
         <v>3</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G53" s="6">
         <v>6258</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="3">
+        <v>78</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="6">
         <v>2086</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C54" s="4">
         <v>44760</v>
@@ -2495,24 +2301,19 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C55" s="4">
         <v>44762</v>
@@ -2524,28 +2325,23 @@
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G55" s="6">
         <v>6597</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="3">
+        <v>27</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="6">
         <v>1649.25</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C56" s="4">
         <v>44766</v>
@@ -2557,24 +2353,19 @@
         <v>1</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C57" s="4">
         <v>44767</v>
@@ -2586,28 +2377,23 @@
         <v>3</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G57" s="6">
         <v>4995</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="3">
+        <v>27</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="6">
         <v>1665</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C58" s="4">
         <v>44770</v>
@@ -2619,24 +2405,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C59" s="4">
         <v>44770</v>
@@ -2648,28 +2429,23 @@
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G59" s="6">
         <v>7303.5</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="3">
+        <v>27</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="6">
         <v>1825.87</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C60" s="4">
         <v>44774</v>
@@ -2681,24 +2457,19 @@
         <v>1</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C61" s="4">
         <v>44775</v>
@@ -2710,30 +2481,23 @@
         <v>5</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G61" s="6">
         <v>12500</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="4">
-        <v>44595</v>
-      </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="3">
+        <v>11</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="6">
         <v>2500</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C62" s="4">
         <v>44780</v>
@@ -2745,24 +2509,19 @@
         <v>1</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C63" s="4">
         <v>44781</v>
@@ -2774,24 +2533,19 @@
         <v>21</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C64" s="4">
         <v>44803</v>
@@ -2803,24 +2557,19 @@
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C65" s="4">
         <v>44806</v>
@@ -2832,28 +2581,23 @@
         <v>3</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G65" s="6">
         <v>6954</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="3">
+        <v>36</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="6">
         <v>2318</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C66" s="4">
         <v>44811</v>
@@ -2865,24 +2609,19 @@
         <v>1</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C67" s="4">
         <v>44812</v>
@@ -2894,28 +2633,23 @@
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G67" s="6">
         <v>4636</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="3">
+        <v>95</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="6">
         <v>1159</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C68" s="4">
         <v>44817</v>
@@ -2927,24 +2661,19 @@
         <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C69" s="4">
         <v>44819</v>
@@ -2956,26 +2685,23 @@
         <v>3</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G69" s="6">
         <v>6954</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="3">
+        <v>36</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="6">
         <v>2318</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C70" s="4">
         <v>44823</v>
@@ -2987,24 +2713,19 @@
         <v>1</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C71" s="4">
         <v>44826</v>
@@ -3016,28 +2737,23 @@
         <v>3</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G71" s="6">
         <v>6954</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="3">
+        <v>36</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="6">
         <v>2318</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C72" s="4">
         <v>44830</v>
@@ -3049,24 +2765,19 @@
         <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" s="5"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C73" s="4">
         <v>44832</v>
@@ -3078,28 +2789,23 @@
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G73" s="6">
         <v>9380.34</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="3">
+        <v>27</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="6">
         <v>2345.08</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C74" s="4">
         <v>44839</v>
@@ -3111,24 +2817,19 @@
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C75" s="4">
         <v>44840</v>
@@ -3140,28 +2841,23 @@
         <v>3</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G75" s="6">
         <v>6954</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J75" s="5"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="3">
+        <v>36</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="6">
         <v>2318</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C76" s="4">
         <v>44844</v>
@@ -3173,24 +2869,19 @@
         <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C77" s="4">
         <v>44846</v>
@@ -3202,26 +2893,21 @@
         <v>5</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G77" s="6">
         <v>0</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C78" s="4">
         <v>44853</v>
@@ -3233,24 +2919,19 @@
         <v>1</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J78" s="5"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C79" s="4">
         <v>44854</v>
@@ -3262,28 +2943,23 @@
         <v>3</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G79" s="6">
         <v>6954</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J79" s="5"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="3">
+        <v>27</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="6">
         <v>2318</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C80" s="4">
         <v>44857</v>
@@ -3295,24 +2971,19 @@
         <v>1</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C81" s="4">
         <v>44858</v>
@@ -3324,28 +2995,23 @@
         <v>5</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G81" s="6">
         <v>11590</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="3">
+        <v>112</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="6">
         <v>2318</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C82" s="4">
         <v>44864</v>
@@ -3357,24 +3023,19 @@
         <v>1</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C83" s="4">
         <v>44869</v>
@@ -3386,28 +3047,23 @@
         <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G83" s="6">
         <v>7940</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="3">
+        <v>20</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="6">
         <v>1985</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C84" s="4">
         <v>44873</v>
@@ -3419,24 +3075,19 @@
         <v>1</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J84" s="5"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C85" s="4">
         <v>44874</v>
@@ -3448,28 +3099,23 @@
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G85" s="6">
         <v>7940</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J85" s="5"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="3">
+        <v>117</v>
+      </c>
+      <c r="I85" s="4"/>
+      <c r="J85" s="6">
         <v>1985</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C86" s="4">
         <v>44879</v>
@@ -3481,24 +3127,19 @@
         <v>1</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J86" s="5"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C87" s="4">
         <v>44887</v>
@@ -3510,24 +3151,19 @@
         <v>1</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J87" s="5"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C88" s="4">
         <v>44888</v>
@@ -3539,28 +3175,23 @@
         <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G88" s="6">
         <v>7971</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J88" s="5"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="3">
+        <v>36</v>
+      </c>
+      <c r="I88" s="4"/>
+      <c r="J88" s="6">
         <v>1992.75</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C89" s="4">
         <v>44893</v>
@@ -3572,321 +3203,878 @@
         <v>1</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J89" s="5"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" s="4">
-        <v>44919</v>
-      </c>
-      <c r="D90" s="4">
-        <v>44931</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" s="5"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="8">
+        <v>44903</v>
+      </c>
+      <c r="D90" s="8">
+        <v>44906</v>
+      </c>
+      <c r="E90" s="9">
+        <v>3</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="10">
+        <v>1966</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="8"/>
+      <c r="J90" s="10">
+        <v>655.33000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C91" s="4">
-        <v>44973</v>
+        <v>44906</v>
       </c>
       <c r="D91" s="4">
-        <v>44974</v>
+        <v>44907</v>
       </c>
       <c r="E91" s="5">
         <v>1</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J91" s="5"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I91" s="4"/>
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C92" s="4">
-        <v>44974</v>
+        <v>44919</v>
       </c>
       <c r="D92" s="4">
-        <v>44977</v>
+        <v>44920</v>
       </c>
       <c r="E92" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" s="6">
-        <v>5874</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G92" s="6"/>
       <c r="H92" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J92" s="5"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="3">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C93" s="4">
-        <v>44978</v>
+        <v>44920</v>
       </c>
       <c r="D93" s="4">
-        <v>44979</v>
+        <v>44927</v>
       </c>
       <c r="E93" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="G93" s="6">
+        <v>13762</v>
+      </c>
       <c r="H93" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J93" s="5"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I93" s="4"/>
+      <c r="J93" s="6">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C94" s="4">
-        <v>45049</v>
+        <v>44927</v>
       </c>
       <c r="D94" s="4">
-        <v>45050</v>
+        <v>44928</v>
       </c>
       <c r="E94" s="5">
         <v>1</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J94" s="5"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I94" s="4"/>
+      <c r="J94" s="6"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C95" s="4">
-        <v>45050</v>
+        <v>44951</v>
       </c>
       <c r="D95" s="4">
-        <v>45062</v>
+        <v>44952</v>
       </c>
       <c r="E95" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" s="6">
-        <v>27816</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G95" s="6"/>
       <c r="H95" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J95" s="5"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="3">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I95" s="4"/>
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C96" s="4">
-        <v>45062</v>
+        <v>44952</v>
       </c>
       <c r="D96" s="4">
-        <v>45063</v>
+        <v>44955</v>
       </c>
       <c r="E96" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="G96" s="6">
+        <v>6002</v>
+      </c>
       <c r="H96" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J96" s="5"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I96" s="4"/>
+      <c r="J96" s="6">
+        <v>2000.66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C97" s="4">
-        <v>45070</v>
+        <v>44955</v>
       </c>
       <c r="D97" s="4">
-        <v>45071</v>
+        <v>44956</v>
       </c>
       <c r="E97" s="5">
         <v>1</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" s="5"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I97" s="4"/>
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C98" s="4">
-        <v>45071</v>
+        <v>44965</v>
       </c>
       <c r="D98" s="4">
-        <v>45075</v>
+        <v>44966</v>
       </c>
       <c r="E98" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" s="6">
-        <v>9272</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G98" s="6"/>
       <c r="H98" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J98" s="5"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="3">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="6"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="4">
+        <v>44966</v>
+      </c>
+      <c r="D99" s="4">
+        <v>44970</v>
+      </c>
+      <c r="E99" s="5">
+        <v>4</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="6">
+        <v>0</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I99" s="4"/>
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="4">
+        <v>44973</v>
+      </c>
+      <c r="D100" s="4">
+        <v>44974</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="4">
+        <v>44974</v>
+      </c>
+      <c r="D101" s="4">
+        <v>44977</v>
+      </c>
+      <c r="E101" s="5">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="6">
+        <v>5874</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I101" s="4"/>
+      <c r="J101" s="6">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="4">
+        <v>44978</v>
+      </c>
+      <c r="D102" s="4">
+        <v>44979</v>
+      </c>
+      <c r="E102" s="5">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I102" s="4"/>
+      <c r="J102" s="6"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="4">
+        <v>44988</v>
+      </c>
+      <c r="D103" s="4">
+        <v>44994</v>
+      </c>
+      <c r="E103" s="5">
+        <v>6</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="6">
+        <v>10958</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I103" s="4"/>
+      <c r="J103" s="6">
+        <v>1826.33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="4">
+        <v>44994</v>
+      </c>
+      <c r="D104" s="4">
+        <v>44995</v>
+      </c>
+      <c r="E104" s="5">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="6"/>
+      <c r="H104" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104" s="4"/>
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="4">
+        <v>45028</v>
+      </c>
+      <c r="D105" s="4">
+        <v>45029</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" s="4"/>
+      <c r="J105" s="6"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C106" s="4">
+        <v>45029</v>
+      </c>
+      <c r="D106" s="4">
+        <v>45032</v>
+      </c>
+      <c r="E106" s="5">
+        <v>3</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="6">
+        <v>6954</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="4"/>
+      <c r="J106" s="6">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="4">
+        <v>45032</v>
+      </c>
+      <c r="D107" s="4">
+        <v>45033</v>
+      </c>
+      <c r="E107" s="5">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I107" s="4"/>
+      <c r="J107" s="6"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="4">
+        <v>45035</v>
+      </c>
+      <c r="D108" s="4">
+        <v>45036</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" s="4"/>
+      <c r="J108" s="6"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="4">
+        <v>45036</v>
+      </c>
+      <c r="D109" s="4">
+        <v>45039</v>
+      </c>
+      <c r="E109" s="5">
+        <v>3</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G109" s="6">
+        <v>6954</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I109" s="4"/>
+      <c r="J109" s="6">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="4">
+        <v>45039</v>
+      </c>
+      <c r="D110" s="4">
+        <v>45040</v>
+      </c>
+      <c r="E110" s="5">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I110" s="4"/>
+      <c r="J110" s="6"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="4">
+        <v>45049</v>
+      </c>
+      <c r="D111" s="4">
+        <v>45050</v>
+      </c>
+      <c r="E111" s="5">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I111" s="4"/>
+      <c r="J111" s="6"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112" s="4">
+        <v>45050</v>
+      </c>
+      <c r="D112" s="4">
+        <v>45062</v>
+      </c>
+      <c r="E112" s="5">
+        <v>12</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="6">
+        <v>27816</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I112" s="4"/>
+      <c r="J112" s="6">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="4">
+        <v>45062</v>
+      </c>
+      <c r="D113" s="4">
+        <v>45063</v>
+      </c>
+      <c r="E113" s="5">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113" s="4"/>
+      <c r="J113" s="6"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="4">
+        <v>45063</v>
+      </c>
+      <c r="D114" s="4">
+        <v>45066</v>
+      </c>
+      <c r="E114" s="5">
+        <v>3</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="6">
+        <v>6954</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="4"/>
+      <c r="J114" s="6">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C115" s="4">
+        <v>45070</v>
+      </c>
+      <c r="D115" s="4">
+        <v>45071</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115" s="4"/>
+      <c r="J115" s="6"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C116" s="4">
+        <v>45071</v>
+      </c>
+      <c r="D116" s="4">
         <v>45075</v>
       </c>
-      <c r="D99" s="4">
+      <c r="E116" s="5">
+        <v>4</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="6">
+        <v>9272</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I116" s="4"/>
+      <c r="J116" s="6">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C117" s="4">
+        <v>45075</v>
+      </c>
+      <c r="D117" s="4">
         <v>45076</v>
       </c>
-      <c r="E99" s="5">
-        <v>1</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="6"/>
-      <c r="H99" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I99" s="5" t="s">
+      <c r="E117" s="5">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="6"/>
+      <c r="H117" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I117" s="4"/>
+      <c r="J117" s="6"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="4">
+        <v>45095</v>
+      </c>
+      <c r="D118" s="4">
+        <v>45096</v>
+      </c>
+      <c r="E118" s="5">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="6"/>
+      <c r="H118" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" s="4"/>
+      <c r="J118" s="6"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="4">
+        <v>45096</v>
+      </c>
+      <c r="D119" s="4">
+        <v>45116</v>
+      </c>
+      <c r="E119" s="5">
+        <v>20</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G119" s="6">
+        <v>33376</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I119" s="4"/>
+      <c r="J119" s="6">
+        <v>1668.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="4">
+        <v>45116</v>
+      </c>
+      <c r="D120" s="4">
+        <v>45117</v>
+      </c>
+      <c r="E120" s="5">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" s="4"/>
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="4">
+        <v>45475</v>
+      </c>
+      <c r="D121" s="4">
+        <v>45476</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I121" s="4"/>
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" s="4">
+        <v>45476</v>
+      </c>
+      <c r="D122" s="4">
+        <v>45480</v>
+      </c>
+      <c r="E122" s="5">
+        <v>4</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J99" s="5"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="3"/>
+      <c r="G122" s="6">
+        <v>0</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C123" s="4">
+        <v>45480</v>
+      </c>
+      <c r="D123" s="4">
+        <v>45481</v>
+      </c>
+      <c r="E123" s="5">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3895,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3906,11 +4094,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3933,26 +4120,17 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4">
         <v>44806</v>
@@ -3964,28 +4142,23 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>6954</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3">
         <v>2318</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4">
         <v>44811</v>
@@ -3997,24 +4170,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4">
         <v>44812</v>
@@ -4026,28 +4194,23 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G4" s="3">
         <v>4636</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3">
+        <v>95</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3">
         <v>1159</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4">
         <v>44817</v>
@@ -4059,24 +4222,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4">
         <v>44819</v>
@@ -4088,26 +4246,23 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3">
         <v>6954</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3">
         <v>2318</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C7" s="4">
         <v>44823</v>
@@ -4119,24 +4274,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4">
         <v>44826</v>
@@ -4148,28 +4298,23 @@
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3">
         <v>6954</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3">
+        <v>36</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3">
         <v>2318</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4">
         <v>44830</v>
@@ -4181,24 +4326,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C10" s="4">
         <v>44832</v>
@@ -4210,21 +4350,16 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3">
         <v>9380.34</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3">
+        <v>27</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3">
         <v>2345.08</v>
       </c>
     </row>
@@ -4235,7 +4370,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4246,11 +4381,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4273,26 +4407,17 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4">
         <v>44839</v>
@@ -4304,24 +4429,19 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4">
         <v>44840</v>
@@ -4333,28 +4453,23 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3">
         <v>6954</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3">
         <v>2318</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4">
         <v>44844</v>
@@ -4366,24 +4481,19 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4">
         <v>44846</v>
@@ -4395,26 +4505,21 @@
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4">
         <v>44853</v>
@@ -4426,24 +4531,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4">
         <v>44854</v>
@@ -4455,28 +4555,23 @@
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3">
         <v>6954</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3">
         <v>2318</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C8" s="4">
         <v>44857</v>
@@ -4488,24 +4583,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4">
         <v>44858</v>
@@ -4517,28 +4607,23 @@
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3">
         <v>11590</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3">
+        <v>112</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3">
         <v>2318</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4">
         <v>44864</v>
@@ -4550,19 +4635,14 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4571,7 +4651,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4582,11 +4662,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4609,26 +4688,17 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4">
         <v>44869</v>
@@ -4640,28 +4710,23 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>7940</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3">
         <v>1985</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C3" s="4">
         <v>44873</v>
@@ -4673,24 +4738,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C4" s="4">
         <v>44874</v>
@@ -4702,28 +4762,23 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3">
         <v>7940</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3">
+        <v>117</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3">
         <v>1985</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="4">
         <v>44879</v>
@@ -4735,24 +4790,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" s="4">
         <v>44887</v>
@@ -4764,24 +4814,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" s="4">
         <v>44888</v>
@@ -4793,28 +4838,23 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3">
         <v>7971</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3">
         <v>1992.75</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4">
         <v>44893</v>
@@ -4826,19 +4866,14 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4847,7 +4882,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4858,11 +4893,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4885,50 +4919,116 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4">
+        <v>44903</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44906</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1966</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3">
+        <v>655.33000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44906</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44907</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="4">
         <v>44919</v>
       </c>
-      <c r="D2" s="4">
-        <v>44931</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
+      <c r="D4" s="4">
+        <v>44920</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44920</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44927</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
+        <v>13762</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3">
+        <v>1966</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4937,7 +5037,310 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44574</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44575</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44575</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44578</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44580</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44581</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44581</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44584</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44584</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44585</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44588</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44927</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44928</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44951</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44952</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44952</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44955</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6002</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3">
+        <v>2000.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44955</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44956</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4948,11 +5351,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4975,212 +5377,275 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4">
-        <v>44574</v>
+        <v>44603</v>
       </c>
       <c r="D2" s="4">
-        <v>44575</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
+        <v>44607</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4">
-        <v>44575</v>
+        <v>44609</v>
       </c>
       <c r="D3" s="4">
-        <v>44578</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>44610</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5700</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4">
-        <v>44580</v>
+        <v>44610</v>
       </c>
       <c r="D4" s="4">
-        <v>44581</v>
+        <v>44613</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5881</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3">
+        <v>1960.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4">
-        <v>44581</v>
+        <v>44615</v>
       </c>
       <c r="D5" s="4">
-        <v>44584</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>44616</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5700</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44616</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44619</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5006</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
-        <v>44584</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44585</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I6" s="4"/>
+      <c r="J6" s="3">
+        <v>1668.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4">
-        <v>44588</v>
+        <v>44965</v>
       </c>
       <c r="D7" s="4">
-        <v>44590</v>
+        <v>44966</v>
       </c>
       <c r="E7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44966</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44970</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44973</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44974</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44974</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44977</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5874</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44978</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44979</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M9"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5191,11 +5656,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5218,280 +5682,377 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4">
-        <v>44603</v>
+        <v>44623</v>
       </c>
       <c r="D2" s="4">
-        <v>44607</v>
+        <v>44624</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4">
-        <v>44609</v>
+        <v>44624</v>
       </c>
       <c r="D3" s="4">
-        <v>44610</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
+        <v>44627</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5700</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4">
-        <v>44610</v>
+        <v>44627</v>
       </c>
       <c r="D4" s="4">
-        <v>44613</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3</v>
+        <v>44628</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3">
-        <v>5881</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3">
-        <v>1960.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
-        <v>44615</v>
+        <v>44630</v>
       </c>
       <c r="D5" s="4">
-        <v>44616</v>
+        <v>44633</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5175</v>
+      </c>
       <c r="H5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4">
-        <v>44616</v>
+        <v>44636</v>
       </c>
       <c r="D6" s="4">
-        <v>44619</v>
+        <v>44637</v>
       </c>
       <c r="E6" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5006</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4">
-        <v>44613</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3">
-        <v>1668.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4">
-        <v>44973</v>
+        <v>44637</v>
       </c>
       <c r="D7" s="4">
-        <v>44974</v>
+        <v>44640</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4832</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3">
+        <v>1610.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4">
-        <v>44974</v>
+        <v>44644</v>
       </c>
       <c r="D8" s="4">
-        <v>44977</v>
+        <v>44645</v>
       </c>
       <c r="E8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5874</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4">
-        <v>44978</v>
+        <v>44645</v>
       </c>
       <c r="D9" s="4">
-        <v>44979</v>
+        <v>44647</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3405</v>
+      </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3">
+        <v>1702.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44647</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44647</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44647</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44649</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44650</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44651</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44651</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44652</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44988</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44994</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10958</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3">
+        <v>1826.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44994</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44995</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M13"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5502,11 +6063,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5529,394 +6089,409 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4">
-        <v>44623</v>
+        <v>44652</v>
       </c>
       <c r="D2" s="4">
-        <v>44624</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>44654</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2893.59</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3">
+        <v>1446.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4">
-        <v>44624</v>
+        <v>44655</v>
       </c>
       <c r="D3" s="4">
-        <v>44627</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>44656</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5700</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4">
-        <v>44627</v>
+        <v>44660</v>
       </c>
       <c r="D4" s="4">
-        <v>44628</v>
+        <v>44665</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9875</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4">
-        <v>44630</v>
+        <v>44665</v>
       </c>
       <c r="D5" s="4">
-        <v>44633</v>
+        <v>44665</v>
       </c>
       <c r="E5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5175</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4">
-        <v>44636</v>
+        <v>44665</v>
       </c>
       <c r="D6" s="4">
-        <v>44637</v>
+        <v>44668</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5286</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4">
-        <v>44637</v>
+        <v>44669</v>
       </c>
       <c r="D7" s="4">
-        <v>44640</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3</v>
+        <v>44670</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4832</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3">
-        <v>1610.66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4">
-        <v>44644</v>
+        <v>44670</v>
       </c>
       <c r="D8" s="4">
-        <v>44645</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
+        <v>44675</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9875</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4">
-        <v>44645</v>
+        <v>44677</v>
       </c>
       <c r="D9" s="4">
-        <v>44647</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
+        <v>44678</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3405</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3">
-        <v>1702.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4">
-        <v>44647</v>
+        <v>44678</v>
       </c>
       <c r="D10" s="4">
-        <v>44647</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
+        <v>44685</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13825</v>
+      </c>
       <c r="H10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4">
-        <v>44647</v>
+        <v>45028</v>
       </c>
       <c r="D11" s="4">
-        <v>44649</v>
+        <v>45029</v>
       </c>
       <c r="E11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4">
-        <v>44650</v>
+        <v>45029</v>
       </c>
       <c r="D12" s="4">
-        <v>44651</v>
+        <v>45032</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6954</v>
+      </c>
       <c r="H12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4">
-        <v>44651</v>
+        <v>45032</v>
       </c>
       <c r="D13" s="4">
-        <v>44652</v>
+        <v>45033</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45035</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45036</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45036</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45039</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6954</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45039</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45040</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M10"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5927,11 +6502,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5954,311 +6528,409 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4">
-        <v>44652</v>
+        <v>44685</v>
       </c>
       <c r="D2" s="4">
-        <v>44654</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2</v>
+        <v>44686</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2893.59</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3">
-        <v>1446.79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4">
-        <v>44655</v>
+        <v>44686</v>
       </c>
       <c r="D3" s="4">
-        <v>44656</v>
+        <v>44689</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5615</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3">
+        <v>1871.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4">
-        <v>44660</v>
+        <v>44691</v>
       </c>
       <c r="D4" s="4">
-        <v>44665</v>
+        <v>44692</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3">
-        <v>9875</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4">
-        <v>44665</v>
+        <v>44692</v>
       </c>
       <c r="D5" s="4">
-        <v>44665</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
+        <v>44696</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7900</v>
+      </c>
       <c r="H5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4">
-        <v>44665</v>
+        <v>44699</v>
       </c>
       <c r="D6" s="4">
-        <v>44668</v>
+        <v>44700</v>
       </c>
       <c r="E6" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5286</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4">
-        <v>44669</v>
+        <v>44700</v>
       </c>
       <c r="D7" s="4">
-        <v>44670</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>44705</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G7" s="3">
+        <v>11678.8</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3">
+        <v>2335.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4">
-        <v>44670</v>
+        <v>44706</v>
       </c>
       <c r="D8" s="4">
-        <v>44675</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>44707</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9875</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4">
-        <v>44677</v>
+        <v>44707</v>
       </c>
       <c r="D9" s="4">
-        <v>44678</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>44710</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5881</v>
+      </c>
       <c r="H9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3">
+        <v>1960.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C10" s="4">
-        <v>44678</v>
+        <v>45049</v>
       </c>
       <c r="D10" s="4">
-        <v>44685</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>60</v>
+        <v>45050</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3">
-        <v>13825</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3">
-        <v>1975</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45050</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45062</v>
+      </c>
+      <c r="E11" s="5">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <v>27816</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45062</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45063</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45063</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45066</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6954</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45070</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45071</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45071</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45075</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3">
+        <v>9272</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45075</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45076</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M15"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6269,11 +6941,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6296,460 +6967,333 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4">
-        <v>44685</v>
+        <v>44713</v>
       </c>
       <c r="D2" s="4">
-        <v>44686</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>44714</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4">
-        <v>44686</v>
+        <v>44714</v>
       </c>
       <c r="D3" s="4">
-        <v>44689</v>
+        <v>44719</v>
       </c>
       <c r="E3" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3">
-        <v>5615</v>
+        <v>11590</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
-        <v>1871.66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4">
-        <v>44691</v>
+        <v>44720</v>
       </c>
       <c r="D4" s="4">
-        <v>44692</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>36</v>
+        <v>44721</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4">
-        <v>44692</v>
+        <v>44723</v>
       </c>
       <c r="D5" s="4">
-        <v>44696</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>44729</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3">
-        <v>7900</v>
+        <v>11490</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4">
-        <v>44699</v>
+        <v>44729</v>
       </c>
       <c r="D6" s="4">
-        <v>44700</v>
+        <v>44730</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4">
-        <v>44700</v>
+        <v>44730</v>
       </c>
       <c r="D7" s="4">
-        <v>44705</v>
+        <v>44734</v>
       </c>
       <c r="E7" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3">
-        <v>11678.8</v>
+        <v>6116</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3">
-        <v>2335.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8" s="4">
-        <v>44706</v>
+        <v>44734</v>
       </c>
       <c r="D8" s="4">
-        <v>44707</v>
+        <v>44734</v>
       </c>
       <c r="E8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4">
-        <v>44707</v>
+        <v>44734</v>
       </c>
       <c r="D9" s="4">
-        <v>44710</v>
+        <v>44736</v>
       </c>
       <c r="E9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3">
-        <v>5881</v>
+        <v>2832</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3">
-        <v>1960.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4">
-        <v>45049</v>
+        <v>44736</v>
       </c>
       <c r="D10" s="4">
-        <v>45050</v>
+        <v>44736</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4">
-        <v>45050</v>
+        <v>44736</v>
       </c>
       <c r="D11" s="4">
-        <v>45062</v>
+        <v>44751</v>
       </c>
       <c r="E11" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" s="3">
-        <v>27816</v>
+        <v>19958</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3">
+        <v>1330.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C12" s="4">
-        <v>45062</v>
+        <v>45095</v>
       </c>
       <c r="D12" s="4">
-        <v>45063</v>
+        <v>45096</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C13" s="4">
-        <v>45070</v>
+        <v>45096</v>
       </c>
       <c r="D13" s="4">
-        <v>45071</v>
+        <v>45116</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="G13" s="3">
+        <v>33376</v>
+      </c>
       <c r="H13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="4">
-        <v>45071</v>
-      </c>
-      <c r="D14" s="4">
-        <v>45075</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="3">
-        <v>9272</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="4">
-        <v>45075</v>
-      </c>
-      <c r="D15" s="4">
-        <v>45076</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3">
+        <v>1668.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M11"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6760,11 +7304,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6787,340 +7330,327 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4">
-        <v>44713</v>
+        <v>44752</v>
       </c>
       <c r="D2" s="4">
-        <v>44714</v>
+        <v>44753</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4">
-        <v>44714</v>
+        <v>44756</v>
       </c>
       <c r="D3" s="4">
-        <v>44719</v>
+        <v>44759</v>
       </c>
       <c r="E3" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3">
-        <v>11590</v>
+        <v>6258</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4">
-        <v>44720</v>
+        <v>44760</v>
       </c>
       <c r="D4" s="4">
-        <v>44721</v>
+        <v>44761</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4">
-        <v>44723</v>
+        <v>44762</v>
       </c>
       <c r="D5" s="4">
-        <v>44729</v>
+        <v>44766</v>
       </c>
       <c r="E5" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3">
-        <v>11490</v>
+        <v>6597</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3">
+        <v>1649.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4">
-        <v>44729</v>
+        <v>44766</v>
       </c>
       <c r="D6" s="4">
-        <v>44730</v>
+        <v>44767</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4">
-        <v>44730</v>
+        <v>44767</v>
       </c>
       <c r="D7" s="4">
-        <v>44734</v>
+        <v>44770</v>
       </c>
       <c r="E7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3">
-        <v>6116</v>
+        <v>4995</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4">
-        <v>44734</v>
+        <v>44770</v>
       </c>
       <c r="D8" s="4">
-        <v>44734</v>
+        <v>44770</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4">
-        <v>44734</v>
+        <v>44770</v>
       </c>
       <c r="D9" s="4">
-        <v>44736</v>
+        <v>44774</v>
       </c>
       <c r="E9" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3">
-        <v>2832</v>
+        <v>7303.5</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3">
+        <v>1825.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="C10" s="4">
-        <v>44736</v>
+        <v>45116</v>
       </c>
       <c r="D10" s="4">
-        <v>44736</v>
+        <v>45117</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C11" s="4">
-        <v>44736</v>
+        <v>45475</v>
       </c>
       <c r="D11" s="4">
-        <v>44751</v>
+        <v>45476</v>
       </c>
       <c r="E11" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="3">
-        <v>19958</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45476</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45480</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3">
-        <v>1330.53</v>
-      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45480</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45481</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M9"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7131,11 +7661,10 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7158,481 +7687,136 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4">
-        <v>44752</v>
+        <v>44774</v>
       </c>
       <c r="D2" s="4">
-        <v>44753</v>
+        <v>44775</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4">
-        <v>44756</v>
+        <v>44775</v>
       </c>
       <c r="D3" s="4">
-        <v>44759</v>
+        <v>44780</v>
       </c>
       <c r="E3" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3">
-        <v>6258</v>
+        <v>12500</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4">
-        <v>44760</v>
+        <v>44780</v>
       </c>
       <c r="D4" s="4">
-        <v>44761</v>
+        <v>44781</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4">
-        <v>44762</v>
+        <v>44781</v>
       </c>
       <c r="D5" s="4">
-        <v>44766</v>
+        <v>44802</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3">
-        <v>6597</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3">
-        <v>1649.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4">
-        <v>44766</v>
+        <v>44803</v>
       </c>
       <c r="D6" s="4">
-        <v>44767</v>
+        <v>44804</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44767</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44770</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4995</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44770</v>
-      </c>
-      <c r="D8" s="4">
-        <v>44770</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44770</v>
-      </c>
-      <c r="D9" s="4">
-        <v>44774</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7303.5</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3">
-        <v>1825.87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="13" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44774</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44775</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44775</v>
-      </c>
-      <c r="D3" s="4">
-        <v>44780</v>
-      </c>
-      <c r="E3" s="5">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3">
-        <v>12500</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4">
-        <v>44595</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44780</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44781</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44781</v>
-      </c>
-      <c r="D5" s="4">
-        <v>44802</v>
-      </c>
-      <c r="E5" s="5">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44803</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44804</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
